--- a/venta_departamento_tarapaca.xlsx
+++ b/venta_departamento_tarapaca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="793">
   <si>
     <t>id</t>
   </si>
@@ -25,51 +25,111 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
+    <t>Barrio Parque</t>
+  </si>
+  <si>
+    <t>$ 246.283.917</t>
+  </si>
+  <si>
+    <t>-20.24861</t>
+  </si>
+  <si>
+    <t>-70.13821</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6775-barrio-parque-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Oceánica Resort Style</t>
+  </si>
+  <si>
+    <t>$ 88.509.947</t>
+  </si>
+  <si>
+    <t>-20.26077</t>
+  </si>
+  <si>
+    <t>-70.12722</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6361-oceanica-resort-style-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Alto Tamarugal</t>
   </si>
   <si>
     <t>$ 60.958.730</t>
   </si>
   <si>
+    <t>-20.24495</t>
+  </si>
+  <si>
+    <t>-70.12646</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6777-alto-tamarugal-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Oceánica Resort Style</t>
-  </si>
-  <si>
-    <t>$ 88.509.947</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6361-oceanica-resort-style-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Barrio Parque</t>
-  </si>
-  <si>
-    <t>$ 246.283.917</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6775-barrio-parque-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>Altos de Huayquique</t>
   </si>
   <si>
     <t>$ 52.227.523</t>
   </si>
   <si>
+    <t>-20.27922</t>
+  </si>
+  <si>
+    <t>-70.12746</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6776-altos-de-huayquique-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Mirador Playa Brava 2</t>
+  </si>
+  <si>
+    <t>$ 63.301.249</t>
+  </si>
+  <si>
+    <t>-20.24326</t>
+  </si>
+  <si>
+    <t>-70.14049</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4943-mirador-playa-brava-2-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Edificio Nuevo Centro</t>
   </si>
   <si>
     <t>$ 57.578.049</t>
   </si>
   <si>
+    <t>-20.21363</t>
+  </si>
+  <si>
+    <t>-70.14585</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6351-edificio-nuevo-centro-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -82,13 +142,214 @@
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3961-mirador-playa-brava-uno-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Mirador Playa Brava 2</t>
-  </si>
-  <si>
-    <t>$ 63.301.249</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4943-mirador-playa-brava-2-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+    <t>Mar del Norte - Edificio Ámsterdam</t>
+  </si>
+  <si>
+    <t>$ 170.365.010</t>
+  </si>
+  <si>
+    <t>-20.25759</t>
+  </si>
+  <si>
+    <t>-70.13068</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4210-mar-del-norte-edificio-amsterdam-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Alto Cavancha</t>
+  </si>
+  <si>
+    <t>$ 130.435.711</t>
+  </si>
+  <si>
+    <t>-20.23674</t>
+  </si>
+  <si>
+    <t>-70.14924</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4605-alto-cavancha-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>$ 78.527.622</t>
+  </si>
+  <si>
+    <t>-20.24385</t>
+  </si>
+  <si>
+    <t>-70.13859</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5916-sunshine-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Vista Azul</t>
+  </si>
+  <si>
+    <t>$ 85.448.700</t>
+  </si>
+  <si>
+    <t>-20.22015</t>
+  </si>
+  <si>
+    <t>-70.15299</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5680-vista-azul-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Montesol Tres</t>
+  </si>
+  <si>
+    <t>$ 43.283.360</t>
+  </si>
+  <si>
+    <t>-20.29174</t>
+  </si>
+  <si>
+    <t>-70.09175</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/6630-montesol-tres-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Altos del Sur – Cuarta Etapa</t>
+  </si>
+  <si>
+    <t>$ 54.011.032</t>
+  </si>
+  <si>
+    <t>-20.30064</t>
+  </si>
+  <si>
+    <t>-70.10910</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/6629-altos-del-sur-cuarta-etapa-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Condominio Velamar</t>
+  </si>
+  <si>
+    <t>$ 129.104.734</t>
+  </si>
+  <si>
+    <t>-20.25369</t>
+  </si>
+  <si>
+    <t>-70.13383</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3698-condominio-velamar-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Costacavancha</t>
+  </si>
+  <si>
+    <t>$ 154.659.486</t>
+  </si>
+  <si>
+    <t>-20.23615</t>
+  </si>
+  <si>
+    <t>-70.14884</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5313-costacavancha-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Bulnes Labbé</t>
+  </si>
+  <si>
+    <t>$ 50.310.917</t>
+  </si>
+  <si>
+    <t>-20.22014</t>
+  </si>
+  <si>
+    <t>-70.15042</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6947-edificio-bulnes-labbe-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Las Rocas</t>
+  </si>
+  <si>
+    <t>$ 49.219.516</t>
+  </si>
+  <si>
+    <t>-20.27951</t>
+  </si>
+  <si>
+    <t>-70.09447</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/5604-edificio-las-rocas-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Costanera Huayquique</t>
+  </si>
+  <si>
+    <t>$ 116.859.749</t>
+  </si>
+  <si>
+    <t>-20.27197</t>
+  </si>
+  <si>
+    <t>-70.12864</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2692-edificio-costanera-huayquique-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Capital Home &amp; Spa</t>
+  </si>
+  <si>
+    <t>$ 72.831.042</t>
+  </si>
+  <si>
+    <t>-20.21124</t>
+  </si>
+  <si>
+    <t>-70.15203</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4063-capital-home-spa-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Península</t>
+  </si>
+  <si>
+    <t>$ 197.117.640</t>
+  </si>
+  <si>
+    <t>-20.23781</t>
+  </si>
+  <si>
+    <t>-70.15021</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4889-edificio-peninsula-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Playa Huantajaya</t>
+  </si>
+  <si>
+    <t>$ 69.796.415</t>
+  </si>
+  <si>
+    <t>-20.25954</t>
+  </si>
+  <si>
+    <t>-70.13277</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5259-edificio-playa-huantajaya-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Edificio Terrazas del Sol</t>
@@ -97,106 +358,13 @@
     <t>$ 93.168.365</t>
   </si>
   <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6666-edificio-terrazas-del-sol-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Capital Home &amp; Spa</t>
-  </si>
-  <si>
-    <t>$ 72.831.042</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4063-capital-home-spa-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Mar del Norte - Edificio Ámsterdam</t>
-  </si>
-  <si>
-    <t>$ 170.365.010</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4210-mar-del-norte-edificio-amsterdam-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Edificio Costanera Huayquique</t>
-  </si>
-  <si>
-    <t>$ 116.859.749</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2692-edificio-costanera-huayquique-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Altos del Sur – Cuarta Etapa</t>
-  </si>
-  <si>
-    <t>$ 54.011.032</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/6629-altos-del-sur-cuarta-etapa-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Edificio Península</t>
-  </si>
-  <si>
-    <t>$ 197.117.640</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4889-edificio-peninsula-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Vista Azul</t>
-  </si>
-  <si>
-    <t>$ 85.448.700</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5680-vista-azul-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Edificio Playa Huantajaya</t>
-  </si>
-  <si>
-    <t>$ 69.796.415</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5259-edificio-playa-huantajaya-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Boulevard del Mar</t>
-  </si>
-  <si>
-    <t>$ 80.044.935</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6260-boulevard-del-mar-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Condominio Velamar</t>
-  </si>
-  <si>
-    <t>$ 129.104.734</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3698-condominio-velamar-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Edificio Las Rocas</t>
-  </si>
-  <si>
-    <t>$ 49.219.516</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/5604-edificio-las-rocas-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Montesol Tres</t>
-  </si>
-  <si>
-    <t>$ 43.283.360</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/6630-montesol-tres-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+    <t>-20.25122</t>
+  </si>
+  <si>
+    <t>-70.13411</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6666-edificio-terrazas-del-sol-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Matiz Central</t>
@@ -205,52 +373,43 @@
     <t>$ 50.976.405</t>
   </si>
   <si>
+    <t>-20.21277</t>
+  </si>
+  <si>
+    <t>-70.14855</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6541-matiz-central-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Edificio Altus</t>
-  </si>
-  <si>
-    <t>$ 67.317.870</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5936-edificio-altus-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Alto Cavancha</t>
-  </si>
-  <si>
-    <t>$ 130.435.711</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/4605-alto-cavancha-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Costanera Huayquique - Etapa II</t>
   </si>
   <si>
     <t>$ 68.864.731</t>
   </si>
   <si>
+    <t>-20.27207</t>
+  </si>
+  <si>
+    <t>-70.12863</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/6123-costanera-huayquique-etapa-ii-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Sunshine</t>
-  </si>
-  <si>
-    <t>$ 78.527.622</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5916-sunshine-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Costacavancha</t>
-  </si>
-  <si>
-    <t>$ 154.659.486</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5313-costacavancha-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+    <t>Aquamare</t>
+  </si>
+  <si>
+    <t>$ 71.872.739</t>
+  </si>
+  <si>
+    <t>-20.25228</t>
+  </si>
+  <si>
+    <t>-70.13430</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/5917-aquamare-nva?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Santa Rosa de Alto Molle 3940 - Departamento D1009, Alto Hospicio</t>
@@ -259,6 +418,12 @@
     <t>$ 36.814.814</t>
   </si>
   <si>
+    <t>-20.27903</t>
+  </si>
+  <si>
+    <t>-70.09597</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/3328940-santa-rosa-de-alto-molle-3940-departamento-d1009-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -268,6 +433,12 @@
     <t>$ 42.591.955</t>
   </si>
   <si>
+    <t>-20.26491</t>
+  </si>
+  <si>
+    <t>-70.12167</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3575401-tamarugal-3951-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -277,6 +448,12 @@
     <t>$ 44.131.488</t>
   </si>
   <si>
+    <t>-20.23070</t>
+  </si>
+  <si>
+    <t>-70.13567</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2711961-pasaje-dos-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -286,6 +463,12 @@
     <t>$ 50.044.722</t>
   </si>
   <si>
+    <t>-20.27301</t>
+  </si>
+  <si>
+    <t>-70.12418</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3407376-los-algarrobos-4335-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -295,12 +478,24 @@
     <t>$ 50.577.112</t>
   </si>
   <si>
+    <t>-20.24457</t>
+  </si>
+  <si>
+    <t>-70.13104</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3257527-manuel-castro-ramos-2415-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Edificio Milano (Playa Brava) Piso 5, Iquique</t>
   </si>
   <si>
+    <t>-20.24137</t>
+  </si>
+  <si>
+    <t>-70.13948</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3305546-edificio-milano-playa-brava-piso-5-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -310,6 +505,12 @@
     <t>$ 54.570.042</t>
   </si>
   <si>
+    <t>-20.24085</t>
+  </si>
+  <si>
+    <t>-70.13664</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2917933-tadeo-haenke-2221-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -319,6 +520,12 @@
     <t>$ 54.900.545</t>
   </si>
   <si>
+    <t>-20.23662</t>
+  </si>
+  <si>
+    <t>-70.12887</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3191366-condominio-siglo-xxi-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -328,6 +535,12 @@
     <t>$ 55.028.367</t>
   </si>
   <si>
+    <t>-20.24665</t>
+  </si>
+  <si>
+    <t>-70.13251</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3445988-villa-puchuldiza-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -337,6 +550,12 @@
     <t>$ 59.891.505</t>
   </si>
   <si>
+    <t>-20.28232</t>
+  </si>
+  <si>
+    <t>-70.12427</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3204284-edificio-vigias-del-mar-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -352,6 +571,12 @@
     <t>$ 62.555.902</t>
   </si>
   <si>
+    <t>-20.27370</t>
+  </si>
+  <si>
+    <t>-70.12422</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3231222-edificio-vigias-del-mar-ii-piso-11-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -370,12 +595,24 @@
     <t>$ 63.114.912</t>
   </si>
   <si>
+    <t>-20.22075</t>
+  </si>
+  <si>
+    <t>-70.14851</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2982359-avenida-dos-oriente-4829-departamento-1709-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Avenida La Tirana 4450 - Departamento 1205, Iquique</t>
   </si>
   <si>
+    <t>-20.27615</t>
+  </si>
+  <si>
+    <t>-70.12691</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3146134-avenida-la-tirana-4450-departamento-1205-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -394,12 +631,24 @@
     <t>$ 66.548.832</t>
   </si>
   <si>
+    <t>-20.27925</t>
+  </si>
+  <si>
+    <t>-70.12688</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2367736-edificio-costa-sur-torre-b-piso-17-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Edificio Matiz, Iquique</t>
   </si>
   <si>
+    <t>-20.21248</t>
+  </si>
+  <si>
+    <t>-70.15409</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2541521-edificio-matiz-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -409,6 +658,12 @@
     <t>$ 66.907.820</t>
   </si>
   <si>
+    <t>-20.22578</t>
+  </si>
+  <si>
+    <t>-70.13928</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3352333-libertad-1755-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -418,6 +673,12 @@
     <t>$ 67.877.038</t>
   </si>
   <si>
+    <t>-20.28200</t>
+  </si>
+  <si>
+    <t>-70.12452</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3062939-edificio-vigias-del-mar-ii-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -427,6 +688,12 @@
     <t>$ 68.074.368</t>
   </si>
   <si>
+    <t>-20.21443</t>
+  </si>
+  <si>
+    <t>-70.13436</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3073443-s-allende-450-c-4-reinas-reina-margarita-depto-403-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -436,6 +703,12 @@
     <t>$ 68.923.805</t>
   </si>
   <si>
+    <t>-20.28062</t>
+  </si>
+  <si>
+    <t>-70.12432</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3205881-edificio-pacifico-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -454,6 +727,12 @@
     <t>$ 70.796.873</t>
   </si>
   <si>
+    <t>-20.24825</t>
+  </si>
+  <si>
+    <t>-70.13790</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2902584-santiago-polanco-2030-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -463,13 +742,22 @@
     <t>$ 71.004.577</t>
   </si>
   <si>
+    <t>-20.26246</t>
+  </si>
+  <si>
+    <t>-70.13070</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3585754-entre-calle-sagasca-y-arturo-prat-muy-serca-de-ahi-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Condominio Bahía Norte, Iquique</t>
   </si>
   <si>
-    <t>$ 71.872.739</t>
+    <t>-20.21420</t>
+  </si>
+  <si>
+    <t>-70.13540</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3258302-condominio-bahia-norte-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
@@ -478,6 +766,12 @@
     <t>Edificio Altos del Mar - Piso 14, Iquique</t>
   </si>
   <si>
+    <t>-20.26625</t>
+  </si>
+  <si>
+    <t>-70.12501</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3347810-edificio-altos-del-mar-piso-14-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -487,6 +781,12 @@
     <t>$ 73.203.715</t>
   </si>
   <si>
+    <t>-20.21421</t>
+  </si>
+  <si>
+    <t>-70.13423</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3582456-condominio-cuatro-reinas-reina-isabel-piso-n%C2%BA-12-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -496,6 +796,9 @@
     <t>$ 73.831.023</t>
   </si>
   <si>
+    <t>-70.12434</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3031940-dos-oriente-reina-mar-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -520,6 +823,12 @@
     <t>EDIFICIO URBANO CENTRO 168, Iquique</t>
   </si>
   <si>
+    <t>-20.21613</t>
+  </si>
+  <si>
+    <t>-70.15360</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2619744-edificio-urbano-centro-168-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -529,6 +838,12 @@
     <t>$ 74.534.692</t>
   </si>
   <si>
+    <t>-20.24442</t>
+  </si>
+  <si>
+    <t>-70.13953</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3575151-manuel-plaza-2204-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -547,12 +862,24 @@
     <t>$ 75.865.668</t>
   </si>
   <si>
+    <t>-20.28656</t>
+  </si>
+  <si>
+    <t>-70.12739</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3444876-avenida-la-tirana-5445-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Condominio Las Palmas Piso 6 TA, Iquique</t>
   </si>
   <si>
+    <t>-20.23100</t>
+  </si>
+  <si>
+    <t>-70.14120</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3576432-condominio-las-palmas-piso-6-ta-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -562,13 +889,37 @@
     <t>$ 76.744.113</t>
   </si>
   <si>
+    <t>-20.29953</t>
+  </si>
+  <si>
+    <t>-70.10873</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/3481437-condominio-altos-del-sur-ii-torre-c-piso-5-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>Edificio Aquamare Piso 1, Iquique</t>
+  </si>
+  <si>
+    <t>$ 77.196.645</t>
+  </si>
+  <si>
+    <t>-20.25256</t>
+  </si>
+  <si>
+    <t>-70.13469</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3485609-edificio-aquamare-piso-1-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
     <t>Edificio Alborada - Piso 7 Torre I, Iquique</t>
   </si>
   <si>
-    <t>$ 77.196.645</t>
+    <t>-20.27386</t>
+  </si>
+  <si>
+    <t>-70.12657</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3527370-edificio-alborada-piso-7-torre-i-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
@@ -580,27 +931,39 @@
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3441262-avenida-la-tirana-5445-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Edificio Aquamare Piso 1, Iquique</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3485609-edificio-aquamare-piso-1-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+    <t>Tomás Bonilla / Dieciocho de Septiembre, Iquique</t>
+  </si>
+  <si>
+    <t>-20.22734</t>
+  </si>
+  <si>
+    <t>-70.14380</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3157219-tomas-bonilla-dieciocho-de-septiembre-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Dieciocho de Septiembre 1961, Iquique</t>
   </si>
   <si>
+    <t>-20.22714</t>
+  </si>
+  <si>
+    <t>-70.14367</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2223093-dieciocho-de-septiembre-1961-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Tomás Bonilla / Dieciocho de Septiembre, Iquique</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3157219-tomas-bonilla-dieciocho-de-septiembre-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>PEDRO PRADO  448, Iquique</t>
   </si>
   <si>
+    <t>-20.21440</t>
+  </si>
+  <si>
+    <t>-70.13438</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2936644-pedro-prado-448-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -613,6 +976,12 @@
     <t>salvador allende 2250, Iquique</t>
   </si>
   <si>
+    <t>-20.25832</t>
+  </si>
+  <si>
+    <t>-70.13113</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2939911-salvador-allende-2250-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -628,6 +997,12 @@
     <t>calle cerro colorado / avenida bilbao, Iquique</t>
   </si>
   <si>
+    <t>-20.26611</t>
+  </si>
+  <si>
+    <t>-70.12735</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3489611-calle-cerro-colorado-avenida-bilbao-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -637,6 +1012,12 @@
     <t>$ 80.149.667</t>
   </si>
   <si>
+    <t>-20.23360</t>
+  </si>
+  <si>
+    <t>-70.14502</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3412453-iquique-1-region-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -646,6 +1027,12 @@
     <t>$ 82.520.552</t>
   </si>
   <si>
+    <t>-20.27499</t>
+  </si>
+  <si>
+    <t>-70.12626</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3552663-proyectada-2620-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -655,39 +1042,75 @@
     <t>$ 84.969.549</t>
   </si>
   <si>
+    <t>-20.26739</t>
+  </si>
+  <si>
+    <t>-70.12566</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3390086-edificio-las-gaviotas-piso-n%C2%BA-7-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>Oportunidad! Departamento en Condominio Puesta de Sol, Excelente estado, Iquique</t>
+  </si>
+  <si>
+    <t>$ 85.182.505</t>
+  </si>
+  <si>
+    <t>-20.27068</t>
+  </si>
+  <si>
+    <t>-70.12435</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3308837-oportunidad-departamento-en-condominio-puesta-de-sol-excelente-estado-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
     <t>Edif. Baltico piso 13 - Condominio Tres Mares, Iquique</t>
   </si>
   <si>
-    <t>$ 85.182.505</t>
+    <t>-20.26754</t>
+  </si>
+  <si>
+    <t>-70.12710</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3321347-edif-baltico-piso-13-condominio-tres-mares-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Oportunidad! Departamento en Condominio Puesta de Sol, Excelente estado, Iquique</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3308837-oportunidad-departamento-en-condominio-puesta-de-sol-excelente-estado-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Edificio Costa Sur, Iquique</t>
   </si>
   <si>
+    <t>-20.27964</t>
+  </si>
+  <si>
+    <t>-70.12694</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3062911-edificio-costa-sur-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Diagonal Francisco Bilbao 3421, Iquique</t>
   </si>
   <si>
+    <t>-20.25662</t>
+  </si>
+  <si>
+    <t>-70.13365</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2625619-diagonal-francisco-bilbao-3421-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Edificio Costa Sur  Torre B piso 12, Iquique</t>
   </si>
   <si>
+    <t>-20.27900</t>
+  </si>
+  <si>
+    <t>-70.12701</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3527379-edificio-costa-sur-torre-b-piso-12-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -697,6 +1120,12 @@
     <t>$ 87.312.068</t>
   </si>
   <si>
+    <t>-20.24504</t>
+  </si>
+  <si>
+    <t>-70.13150</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3531117-edificio-panoramico-torre-a-piso-n%C2%BA-19-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -706,6 +1135,9 @@
     <t>$ 87.578.263</t>
   </si>
   <si>
+    <t>-70.12732</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2673527-cerro-colorado-3748-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -715,6 +1147,12 @@
     <t>$ 88.190.512</t>
   </si>
   <si>
+    <t>-20.27086</t>
+  </si>
+  <si>
+    <t>-70.12440</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3545191-cinco-sur-4272-departamento-b15-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -724,6 +1162,12 @@
     <t>$ 89.068.861</t>
   </si>
   <si>
+    <t>-20.25392</t>
+  </si>
+  <si>
+    <t>-70.13390</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3566250-manuel-jesus-silva-2249-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -733,6 +1177,12 @@
     <t>$ 89.175.435</t>
   </si>
   <si>
+    <t>-20.23627</t>
+  </si>
+  <si>
+    <t>-70.15194</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3481345-edificio-punta-cavancha-piso-n%C2%BA-9-torre-sur-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -742,6 +1192,12 @@
     <t>$ 90.005.286</t>
   </si>
   <si>
+    <t>-20.27462</t>
+  </si>
+  <si>
+    <t>-70.12928</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2902520-hermoso-departamento-de-2-dormitorios-jardines-de-huayquique-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -751,6 +1207,9 @@
     <t>$ 90.240.216</t>
   </si>
   <si>
+    <t>-20.23542</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3381034-capitan-roberto-perez-2791-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -760,6 +1219,12 @@
     <t>$ 90.506.412</t>
   </si>
   <si>
+    <t>-20.21509</t>
+  </si>
+  <si>
+    <t>-70.13562</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3449256-condominio-portada-oriente-piso-n%C2%BA-11-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -769,24 +1234,48 @@
     <t>$ 91.837.388</t>
   </si>
   <si>
+    <t>-20.23311</t>
+  </si>
+  <si>
+    <t>-70.14197</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3429580-avenida-heroes-de-la-concepcion-2464-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Condominio Tres Mares, Iquique</t>
   </si>
   <si>
+    <t>-20.26832</t>
+  </si>
+  <si>
+    <t>-70.12630</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3208064-condominio-tres-mares-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>CONDOMINIO TRES MARES, Iquique</t>
   </si>
   <si>
+    <t>-20.26846</t>
+  </si>
+  <si>
+    <t>-70.12770</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3210854-condominio-tres-mares-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Rancagua 3024, Iquique</t>
   </si>
   <si>
+    <t>-20.24497</t>
+  </si>
+  <si>
+    <t>-70.13148</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2928898-rancagua-3024-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -796,6 +1285,12 @@
     <t>$ 95.070.086</t>
   </si>
   <si>
+    <t>-20.27400</t>
+  </si>
+  <si>
+    <t>-70.12971</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2202544-condominio-jardines-de-huayquique-edificio-araucaria-iquique-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -805,6 +1300,12 @@
     <t>$ 95.564.123</t>
   </si>
   <si>
+    <t>-20.26594</t>
+  </si>
+  <si>
+    <t>-70.12621</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3549314-departamento-en-edificio-las-gaviotas-excelente-estado-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -814,33 +1315,54 @@
     <t>$ 95.830.318</t>
   </si>
   <si>
+    <t>-20.27097</t>
+  </si>
+  <si>
+    <t>-70.12499</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2979547-calle-5-sur-4272-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Edificio Altos del Parque, Iquique</t>
   </si>
   <si>
+    <t>-20.24277</t>
+  </si>
+  <si>
+    <t>-70.14167</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3199317-edificio-altos-del-parque-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>Edificio Matiz - Piso 17, Iquique</t>
+  </si>
+  <si>
+    <t>-20.21161</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3288000-edificio-matiz-piso-17-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
     <t>GENARO GALLO 2955, Iquique</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3292335-genaro-gallo-2955-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Edificio Matiz - Piso 17, Iquique</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3288000-edificio-matiz-piso-17-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Obispo Labbe / Manuel Rodríguez, Iquique</t>
   </si>
   <si>
     <t>$ 97.161.295</t>
   </si>
   <si>
+    <t>-20.22324</t>
+  </si>
+  <si>
+    <t>-70.15034</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2870231-obispo-labbe-manuel-rodriguez-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -850,6 +1372,12 @@
     <t>$ 98.226.076</t>
   </si>
   <si>
+    <t>-20.25157</t>
+  </si>
+  <si>
+    <t>-70.13229</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3583174-hermoso-y-amplio-departamento-en-edificio-costa-el-aguila-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -859,6 +1387,12 @@
     <t>$ 98.492.271</t>
   </si>
   <si>
+    <t>-20.27416</t>
+  </si>
+  <si>
+    <t>-70.12565</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3412948-edificio-brisas-del-sur-ii-piso-23-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -868,6 +1402,9 @@
     <t>$ 99.823.248</t>
   </si>
   <si>
+    <t>-20.27498</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3397480-edificio-brisas-del-sur-ii-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -886,6 +1423,12 @@
     <t>$ 102.485.201</t>
   </si>
   <si>
+    <t>-20.22764</t>
+  </si>
+  <si>
+    <t>-70.14612</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3256750-juan-martinez-2002-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -895,36 +1438,63 @@
     <t>$ 102.618.299</t>
   </si>
   <si>
+    <t>-20.27439</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2712554-cuatro-sur-2621-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
+    <t>Edificio Puerto Principe - Piso Nº 16, Iquique</t>
+  </si>
+  <si>
+    <t>$ 103.816.178</t>
+  </si>
+  <si>
+    <t>-20.22768</t>
+  </si>
+  <si>
+    <t>-70.14616</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3110788-edificio-puerto-principe-piso-n%C2%BA-16-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
+  </si>
+  <si>
     <t>Edificio Alerce, Condominio Jardines Huayquique, Iquique</t>
   </si>
   <si>
-    <t>$ 103.816.178</t>
+    <t>-20.27490</t>
+  </si>
+  <si>
+    <t>-70.12653</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2520908-edificio-alerce-condominio-jardines-huayquique-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
-    <t>Edificio Puerto Principe - Piso Nº 16, Iquique</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3110788-edificio-puerto-principe-piso-n%C2%BA-16-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
-  </si>
-  <si>
     <t>Edificio Crucero - Piso 10, Iquique</t>
   </si>
   <si>
     <t>$ 105.147.155</t>
   </si>
   <si>
+    <t>-20.23659</t>
+  </si>
+  <si>
+    <t>-70.14926</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3287200-edificio-crucero-piso-10-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Amplio Departamento en Iquique, Iquique</t>
   </si>
   <si>
+    <t>-20.24470</t>
+  </si>
+  <si>
+    <t>-70.13930</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3517552-amplio-departamento-en-iquique-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -940,6 +1510,12 @@
     <t>Edificio Torres de Huayquique, Iquique</t>
   </si>
   <si>
+    <t>-20.28712</t>
+  </si>
+  <si>
+    <t>-70.12778</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3200166-edificio-torres-de-huayquique-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -949,6 +1525,12 @@
     <t>$ 106.909.482</t>
   </si>
   <si>
+    <t>-20.27438</t>
+  </si>
+  <si>
+    <t>-70.12416</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3422073-avenida-4-sur-2621-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -958,6 +1540,12 @@
     <t>$ 108.132.093</t>
   </si>
   <si>
+    <t>-20.22654</t>
+  </si>
+  <si>
+    <t>-70.14366</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3109467-dieciocho-de-septiembre-1900-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -967,6 +1555,12 @@
     <t>$ 111.802.038</t>
   </si>
   <si>
+    <t>-20.24654</t>
+  </si>
+  <si>
+    <t>-70.13830</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3168252-frente-a-juegos-de-playa-brava-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -976,6 +1570,12 @@
     <t>$ 112.574.004</t>
   </si>
   <si>
+    <t>-20.22847</t>
+  </si>
+  <si>
+    <t>-70.14478</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3481219-edificio-costa-azul-ii-piso-8-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -985,12 +1585,24 @@
     <t>$ 114.463.991</t>
   </si>
   <si>
+    <t>-20.22838</t>
+  </si>
+  <si>
+    <t>-70.14698</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3212197-edificio-ventana-al-mar-piso-n%C2%BA-2-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Playa Brava N°2975 Cond Campanario II Depto  113, Iquique</t>
   </si>
   <si>
+    <t>-20.24379</t>
+  </si>
+  <si>
+    <t>-70.13802</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3270386-playa-brava-n2975-cond-campanario-ii-depto-113-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1000,12 +1612,24 @@
     <t>$ 115.059.310</t>
   </si>
   <si>
+    <t>-20.22828</t>
+  </si>
+  <si>
+    <t>-70.14699</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3575390-amunategui-2090-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>San Sebastián 3116 - Departamento 203, Iquique</t>
   </si>
   <si>
+    <t>-20.24651</t>
+  </si>
+  <si>
+    <t>-70.12897</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3198825-san-sebastian-3116-departamento-203-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1015,6 +1639,12 @@
     <t>$ 117.125.944</t>
   </si>
   <si>
+    <t>-20.27453</t>
+  </si>
+  <si>
+    <t>-70.13001</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3288839-edificio-araucaria-piso-n-9-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1024,6 +1654,12 @@
     <t>$ 119.787.898</t>
   </si>
   <si>
+    <t>-20.24541</t>
+  </si>
+  <si>
+    <t>-70.13937</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3385352-edificio-mirador-i-piso-13-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1033,21 +1669,33 @@
     <t>$ 125.111.804</t>
   </si>
   <si>
+    <t>-20.23250</t>
+  </si>
+  <si>
+    <t>-70.14589</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3438290-edificio-barbados-cond-las-antillas-piso-21-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
-    <t>Edificio Montebianco - Piso 3, Iquique</t>
+    <t>Edificio Agua Marina, Iquique</t>
   </si>
   <si>
     <t>$ 127.773.757</t>
   </si>
   <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3319515-edificio-montebianco-piso-3-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3365781-edificio-agua-marina-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Edificio Campanario II - Piso Nº 2, Iquique</t>
   </si>
   <si>
+    <t>-20.24397</t>
+  </si>
+  <si>
+    <t>-70.13805</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3037483-edificio-campanario-ii-piso-n%C2%BA-2-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1057,21 +1705,39 @@
     <t>$ 130.083.814</t>
   </si>
   <si>
+    <t>-20.22275</t>
+  </si>
+  <si>
+    <t>-70.14978</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3103187-eleuterio-ramirez-1559-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
+    <t>Condominio Mar Egeo Edificio Delos, Iquique</t>
+  </si>
+  <si>
+    <t>-20.23949</t>
+  </si>
+  <si>
+    <t>-70.14619</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3440258-condominio-mar-egeo-edificio-delos-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
+  </si>
+  <si>
     <t>Ed. Punta Cavancha Sur, Iquique</t>
   </si>
   <si>
+    <t>-20.23631</t>
+  </si>
+  <si>
+    <t>-70.15195</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3224239-ed-punta-cavancha-sur-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
-    <t>Condominio Mar Egeo Edificio Delos, Iquique</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3440258-condominio-mar-egeo-edificio-delos-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
-  </si>
-  <si>
     <t>Condominio Jardines de Huayquique, Iquique</t>
   </si>
   <si>
@@ -1084,6 +1750,12 @@
     <t>$ 131.766.687</t>
   </si>
   <si>
+    <t>-20.23690</t>
+  </si>
+  <si>
+    <t>-70.14862</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3319383-edificio-montebianco-piso-10-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1111,6 +1783,9 @@
     <t>$ 134.798.628</t>
   </si>
   <si>
+    <t>-20.22328</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2923527-manuel-rodriguez-500-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1120,12 +1795,24 @@
     <t>$ 135.759.617</t>
   </si>
   <si>
+    <t>-20.27448</t>
+  </si>
+  <si>
+    <t>-70.12893</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3198635-proyectada-2140-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Calle 1 2652, Iquique</t>
   </si>
   <si>
+    <t>-20.27374</t>
+  </si>
+  <si>
+    <t>-70.12548</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3533446-calle-1-2652-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1144,6 +1831,9 @@
     <t>$ 141.269.861</t>
   </si>
   <si>
+    <t>-20.23570</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3220279-capitan-roberto-perez-2791-departamento-3003-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1162,9 +1852,21 @@
     <t>$ 146.407.430</t>
   </si>
   <si>
+    <t>-20.27346</t>
+  </si>
+  <si>
+    <t>-70.12502</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3287155-condominio-terrazas-piso-n%C2%BA-6-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
+    <t>-20.22736</t>
+  </si>
+  <si>
+    <t>-70.14374</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3549713-tomas-bonilla-dieciocho-de-septiembre-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1174,18 +1876,33 @@
     <t>$ 149.069.384</t>
   </si>
   <si>
+    <t>-20.26282</t>
+  </si>
+  <si>
+    <t>-70.13061</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3525383-avenida-arturo-prat-chacon-3524-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Edif. Caribe Piso Nº 23 - Condominio Tres Mares, Iquique</t>
   </si>
   <si>
+    <t>-20.26783</t>
+  </si>
+  <si>
+    <t>-70.12686</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3287194-edif-caribe-piso-n%C2%BA-23-condominio-tres-mares-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Edificio Araucaria - Piso N° 3, Iquique</t>
   </si>
   <si>
+    <t>-70.12995</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2161795-edificio-araucaria-piso-n-3-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1204,6 +1921,12 @@
     <t>$ 159.717.197</t>
   </si>
   <si>
+    <t>-20.94025</t>
+  </si>
+  <si>
+    <t>-70.04131</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3514013-moderno-departamento-con-hermosa-vista-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1213,6 +1936,12 @@
     <t>$ 165.041.103</t>
   </si>
   <si>
+    <t>-20.25825</t>
+  </si>
+  <si>
+    <t>-70.13108</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2932849-presidente-salvador-allende-gossens-2250-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1222,6 +1951,12 @@
     <t>$ 166.372.080</t>
   </si>
   <si>
+    <t>-20.27928</t>
+  </si>
+  <si>
+    <t>-70.12965</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3466064-acceso-a-playa-2040-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1240,6 +1975,12 @@
     <t>$ 173.026.963</t>
   </si>
   <si>
+    <t>-20.26929</t>
+  </si>
+  <si>
+    <t>-70.13039</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3474616-edificio-carrara-torre-a-piso-n%C2%BA-15-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1249,6 +1990,12 @@
     <t>$ 178.350.870</t>
   </si>
   <si>
+    <t>-20.26902</t>
+  </si>
+  <si>
+    <t>-70.13034</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3468902-edificio-carrara-torre-a-piso-n%C2%BA-15-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1258,6 +2005,12 @@
     <t>$ 179.282.553</t>
   </si>
   <si>
+    <t>-20.26319</t>
+  </si>
+  <si>
+    <t>-70.12839</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3412742-edificio-bellaterra-piso-n%C2%BA-5-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1267,6 +2020,12 @@
     <t>$ 183.408.581</t>
   </si>
   <si>
+    <t>-20.24642</t>
+  </si>
+  <si>
+    <t>-70.12905</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3474138-san-sebastian-3112-departamento-301-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1276,6 +2035,9 @@
     <t>$ 190.063.464</t>
   </si>
   <si>
+    <t>-20.27413</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2622967-edf-bella-terra-3713-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1285,6 +2047,12 @@
     <t>$ 194.854.980</t>
   </si>
   <si>
+    <t>-20.25492</t>
+  </si>
+  <si>
+    <t>-70.13346</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3481242-condominio-portal-del-pacifico-torre-iii-piso-3-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1294,6 +2062,12 @@
     <t>$ 199.646.496</t>
   </si>
   <si>
+    <t>-20.23731</t>
+  </si>
+  <si>
+    <t>-70.15069</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2895163-edificio-el-faro-piso-6-norte-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1303,6 +2077,12 @@
     <t>$ 202.308.449</t>
   </si>
   <si>
+    <t>-20.25543</t>
+  </si>
+  <si>
+    <t>-70.13382</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2999578-av-playa-chipana-preciosa-vista-al-mar-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1321,6 +2101,12 @@
     <t>$ 207.632.356</t>
   </si>
   <si>
+    <t>-20.23779</t>
+  </si>
+  <si>
+    <t>-70.15050</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3577634-edificio-peninsula-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1339,12 +2125,21 @@
     <t>$ 228.927.982</t>
   </si>
   <si>
+    <t>-20.23971</t>
+  </si>
+  <si>
+    <t>-70.14604</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2886513-condominio-mar-egeo-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Edificio Aruba - Cond Las Antillas - Piso 24, Iquique</t>
   </si>
   <si>
+    <t>-70.14555</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2492492-edificio-aruba-cond-las-antillas-piso-24-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1354,6 +2149,12 @@
     <t>$ 231.589.935</t>
   </si>
   <si>
+    <t>-20.27465</t>
+  </si>
+  <si>
+    <t>-70.12913</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/2972635-edificio-alerce-piso-n-23-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1372,6 +2173,12 @@
     <t>$ 239.575.795</t>
   </si>
   <si>
+    <t>-20.23271</t>
+  </si>
+  <si>
+    <t>-70.14590</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3408759-edificio-dominica-depto-piso-n%C2%BA-13-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1381,6 +2188,12 @@
     <t>$ 346.053.926</t>
   </si>
   <si>
+    <t>-20.29130</t>
+  </si>
+  <si>
+    <t>-70.12822</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3466141-avenida-arturo-prat-chacon-4775-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1399,6 +2212,12 @@
     <t>$ 45.069.661</t>
   </si>
   <si>
+    <t>-20.27960</t>
+  </si>
+  <si>
+    <t>-70.10339</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/alto-hospicio-tarapaca/3544852-calle-santa-rosa-3940-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1408,12 +2227,24 @@
     <t>$ 65.033.523</t>
   </si>
   <si>
+    <t>-20.25428</t>
+  </si>
+  <si>
+    <t>-70.12607</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3574625-avenida-la-tirana-iquique-departamento-4450-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Diagonal Francisco Bilbao 4150 - Departamento 603, Iquique</t>
   </si>
   <si>
+    <t>-20.26668</t>
+  </si>
+  <si>
+    <t>-70.12584</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3413090-diagonal-francisco-bilbao-4150-departamento-603-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1423,6 +2254,12 @@
     <t>$ 80.046.418</t>
   </si>
   <si>
+    <t>-20.20978</t>
+  </si>
+  <si>
+    <t>-70.15080</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3572725-patricio-lynch-91-departamento-204-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1432,6 +2269,12 @@
     <t>$ 86.527.880</t>
   </si>
   <si>
+    <t>-20.24476</t>
+  </si>
+  <si>
+    <t>-70.13822</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3555472-sagasca-2146-departamento-151-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1441,6 +2284,12 @@
     <t>$ 87.005.608</t>
   </si>
   <si>
+    <t>-20.21412</t>
+  </si>
+  <si>
+    <t>-70.15242</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3584934-plaza-prat-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1450,12 +2299,21 @@
     <t>$ 93.107.954</t>
   </si>
   <si>
+    <t>-20.26847</t>
+  </si>
+  <si>
+    <t>-70.12762</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3556235-teresa-wilmontt-iquique-departamento-2260-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Playa Brava 2975, Iquique</t>
   </si>
   <si>
+    <t>-70.13786</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3580883-playa-brava-2975-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1471,12 +2329,24 @@
     <t>$ 100.038.680</t>
   </si>
   <si>
+    <t>-20.22858</t>
+  </si>
+  <si>
+    <t>-70.14466</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3576567-arturo-fernandez-2098-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>$ 105.074.467</t>
   </si>
   <si>
+    <t>-20.22741</t>
+  </si>
+  <si>
+    <t>-70.14621</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3567560-juan-martinez-2002-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1489,12 +2359,24 @@
     <t>Península Cavancha, Iquique</t>
   </si>
   <si>
+    <t>-20.23571</t>
+  </si>
+  <si>
+    <t>-70.15093</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3548266-peninsula-cavancha-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Edificio Plaza Las Palmas - Avenida Heroes de La Concepción, Iquique, Iquique</t>
   </si>
   <si>
+    <t>-70.14192</t>
+  </si>
+  <si>
+    <t>summary_large_image</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3565401-edificio-plaza-las-palmas-avenida-heroes-de-la-concepcion-iquique-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1502,6 +2384,12 @@
   </si>
   <si>
     <t>$ 110.471.061</t>
+  </si>
+  <si>
+    <t>-20.24035</t>
+  </si>
+  <si>
+    <t>-70.13746</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/iquique-tarapaca/3534576-tadeo-haenke-iquique-uda?tp=2&amp;op=1&amp;iug=442&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
@@ -1845,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,7 +2743,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1868,2769 +2756,5544 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>6777</v>
+        <v>6775</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>175.94</v>
+      </c>
+      <c r="E2">
+        <v>238.67</v>
+      </c>
+      <c r="F2">
+        <v>207.305</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>6361</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E3">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="F3">
+        <v>80.28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>6775</v>
+        <v>6777</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>66.14</v>
+      </c>
+      <c r="E4">
+        <v>78.33</v>
+      </c>
+      <c r="F4">
+        <v>72.235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>6776</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>42.18</v>
+      </c>
+      <c r="E5">
+        <v>95.25</v>
+      </c>
+      <c r="F5">
+        <v>68.715</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
+        <v>4943</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>46.96</v>
+      </c>
+      <c r="E6">
+        <v>143.44</v>
+      </c>
+      <c r="F6">
+        <v>95.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>6351</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>42.04</v>
+      </c>
+      <c r="E7">
+        <v>79.23999999999999</v>
+      </c>
+      <c r="F7">
+        <v>60.64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>3961</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>4943</v>
-      </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>83.02</v>
+      </c>
+      <c r="E8">
+        <v>136.94</v>
+      </c>
+      <c r="F8">
+        <v>109.98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
+        <v>4210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>124.82</v>
+      </c>
+      <c r="E9">
+        <v>124.82</v>
+      </c>
+      <c r="F9">
+        <v>124.82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>4605</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>93.7</v>
+      </c>
+      <c r="E10">
+        <v>171</v>
+      </c>
+      <c r="F10">
+        <v>132.35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>5916</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>60.55</v>
+      </c>
+      <c r="E11">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="F11">
+        <v>72.92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>5680</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>58.76</v>
+      </c>
+      <c r="E12">
+        <v>94.61</v>
+      </c>
+      <c r="F12">
+        <v>76.685</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>6630</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>57.46</v>
+      </c>
+      <c r="E13">
+        <v>57.46</v>
+      </c>
+      <c r="F13">
+        <v>57.46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>6629</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>88</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>3698</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>100.49</v>
+      </c>
+      <c r="E15">
+        <v>119.98</v>
+      </c>
+      <c r="F15">
+        <v>110.235</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>5313</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>98.75</v>
+      </c>
+      <c r="E16">
+        <v>142.1</v>
+      </c>
+      <c r="F16">
+        <v>120.425</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>6947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>36.05</v>
+      </c>
+      <c r="E17">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="F17">
+        <v>57.7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>5604</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>56.9</v>
+      </c>
+      <c r="E18">
+        <v>61.84</v>
+      </c>
+      <c r="F18">
+        <v>59.37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2692</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>84.36</v>
+      </c>
+      <c r="E19">
+        <v>102.51</v>
+      </c>
+      <c r="F19">
+        <v>93.435</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>4063</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>53.53</v>
+      </c>
+      <c r="E20">
+        <v>108.69</v>
+      </c>
+      <c r="F20">
+        <v>81.11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>4889</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21">
+        <v>116</v>
+      </c>
+      <c r="E21">
+        <v>116</v>
+      </c>
+      <c r="F21">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>5259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>147</v>
+      </c>
+      <c r="F22">
+        <v>99.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>6666</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>4063</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>4210</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2692</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="E23">
+        <v>110.22</v>
+      </c>
+      <c r="F23">
+        <v>91.185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>6541</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>6629</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="E24">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>6123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25">
+        <v>44.06</v>
+      </c>
+      <c r="E25">
+        <v>123.88</v>
+      </c>
+      <c r="F25">
+        <v>83.97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>5917</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <v>45.8</v>
+      </c>
+      <c r="E26">
+        <v>170.36</v>
+      </c>
+      <c r="F26">
+        <v>108.08</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>4889</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>5680</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>5259</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>6260</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>3698</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>5604</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>6630</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>6541</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>5936</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>4605</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>6123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>5916</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>5313</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>6630</v>
-      </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>116</v>
+      </c>
+      <c r="E27">
+        <v>116</v>
+      </c>
+      <c r="F27">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>3698</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>100.49</v>
+      </c>
+      <c r="E28">
+        <v>119.98</v>
+      </c>
+      <c r="F28">
+        <v>110.235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>3328940</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="D29">
+        <v>46</v>
+      </c>
+      <c r="E29">
+        <v>48</v>
+      </c>
+      <c r="F29">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>3575401</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="D30">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>2711961</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="D31">
+        <v>65</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>3407376</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3257527</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3305546</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="D34">
+        <v>30.8</v>
+      </c>
+      <c r="E34">
+        <v>31.7</v>
+      </c>
+      <c r="F34">
+        <v>31.25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>2917933</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>3191366</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>3445988</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="D37">
+        <v>57</v>
+      </c>
+      <c r="E37">
+        <v>57</v>
+      </c>
+      <c r="F37">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>3204284</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>3283764</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>181</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+      <c r="F39">
+        <v>70</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3231222</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="D40">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>57</v>
+      </c>
+      <c r="F40">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>3235553</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="D41">
+        <v>57</v>
+      </c>
+      <c r="E41">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>2982359</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D42">
+        <v>55.2</v>
+      </c>
+      <c r="E42">
+        <v>56.6</v>
+      </c>
+      <c r="F42">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="G42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>3146134</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D43">
+        <v>64.8</v>
+      </c>
+      <c r="E43">
+        <v>64.8</v>
+      </c>
+      <c r="F43">
+        <v>64.8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>3209688</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>201</v>
+      </c>
+      <c r="D44">
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <v>65</v>
+      </c>
+      <c r="F44">
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>2367736</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>204</v>
+      </c>
+      <c r="D45">
+        <v>48.67</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>51.835</v>
+      </c>
+      <c r="G45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>2541521</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>204</v>
+      </c>
+      <c r="D46">
+        <v>41.88</v>
+      </c>
+      <c r="E46">
+        <v>41.88</v>
+      </c>
+      <c r="F46">
+        <v>41.88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>3352333</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="E47">
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>3062939</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="D48">
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>60</v>
+      </c>
+      <c r="G48" t="s">
+        <v>219</v>
+      </c>
+      <c r="H48" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>3073443</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>223</v>
+      </c>
+      <c r="D49">
+        <v>63</v>
+      </c>
+      <c r="E49">
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <v>63</v>
+      </c>
+      <c r="G49" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" t="s">
+        <v>225</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>3205881</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>228</v>
+      </c>
+      <c r="D50">
+        <v>67</v>
+      </c>
+      <c r="E50">
+        <v>67</v>
+      </c>
+      <c r="F50">
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" t="s">
+        <v>230</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>3196154</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>233</v>
+      </c>
+      <c r="D51">
+        <v>120</v>
+      </c>
+      <c r="E51">
+        <v>120</v>
+      </c>
+      <c r="F51">
+        <v>120</v>
+      </c>
+      <c r="G51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>2902584</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="D52">
+        <v>43</v>
+      </c>
+      <c r="E52">
+        <v>43</v>
+      </c>
+      <c r="F52">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>3585754</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>241</v>
+      </c>
+      <c r="D53">
+        <v>56</v>
+      </c>
+      <c r="E53">
+        <v>64</v>
+      </c>
+      <c r="F53">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s">
+        <v>242</v>
+      </c>
+      <c r="H53" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>3258302</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="D54">
+        <v>70</v>
+      </c>
+      <c r="E54">
+        <v>70</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54" t="s">
+        <v>247</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>3347810</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="D55">
+        <v>58</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <v>59</v>
+      </c>
+      <c r="G55" t="s">
+        <v>250</v>
+      </c>
+      <c r="H55" t="s">
+        <v>251</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>3582456</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>254</v>
+      </c>
+      <c r="D56">
+        <v>67</v>
+      </c>
+      <c r="E56">
+        <v>67</v>
+      </c>
+      <c r="F56">
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>3031940</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>259</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>3328904</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>263</v>
+      </c>
+      <c r="D58">
+        <v>58</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58">
+        <v>60.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>2619687</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>266</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>2619744</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>266</v>
+      </c>
+      <c r="D60">
+        <v>44</v>
+      </c>
+      <c r="E60">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>44</v>
+      </c>
+      <c r="G60" t="s">
+        <v>269</v>
+      </c>
+      <c r="H60" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>3575151</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>273</v>
+      </c>
+      <c r="D61">
+        <v>70</v>
+      </c>
+      <c r="E61">
+        <v>70</v>
+      </c>
+      <c r="F61">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>274</v>
+      </c>
+      <c r="H61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>3399100</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>278</v>
+      </c>
+      <c r="D62">
+        <v>70</v>
+      </c>
+      <c r="E62">
+        <v>70</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s">
+        <v>269</v>
+      </c>
+      <c r="H62" t="s">
+        <v>270</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>3444876</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>281</v>
+      </c>
+      <c r="D63">
+        <v>76</v>
+      </c>
+      <c r="E63">
+        <v>76</v>
+      </c>
+      <c r="F63">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s">
+        <v>282</v>
+      </c>
+      <c r="H63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>3576432</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>281</v>
+      </c>
+      <c r="D64">
+        <v>71</v>
+      </c>
+      <c r="E64">
+        <v>71</v>
+      </c>
+      <c r="F64">
+        <v>71</v>
+      </c>
+      <c r="G64" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>3481437</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>290</v>
+      </c>
+      <c r="D65">
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <v>88</v>
+      </c>
+      <c r="F65">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
+        <v>3485609</v>
+      </c>
+      <c r="B66" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66">
+        <v>39</v>
+      </c>
+      <c r="E66">
+        <v>39</v>
+      </c>
+      <c r="F66">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s">
+        <v>296</v>
+      </c>
+      <c r="H66" t="s">
+        <v>297</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
         <v>3527370</v>
       </c>
-      <c r="B66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
+      <c r="B67" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>300</v>
+      </c>
+      <c r="H67" t="s">
+        <v>301</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
         <v>3441262</v>
       </c>
-      <c r="B67" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>3485609</v>
-      </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="D68">
+        <v>60</v>
+      </c>
+      <c r="E68">
+        <v>60</v>
+      </c>
+      <c r="F68">
+        <v>60</v>
+      </c>
+      <c r="G68" t="s">
+        <v>282</v>
+      </c>
+      <c r="H68" t="s">
+        <v>283</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
+        <v>3157219</v>
+      </c>
+      <c r="B69" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69">
+        <v>40.75</v>
+      </c>
+      <c r="E69">
+        <v>46.88</v>
+      </c>
+      <c r="F69">
+        <v>43.815</v>
+      </c>
+      <c r="G69" t="s">
+        <v>306</v>
+      </c>
+      <c r="H69" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
         <v>2223093</v>
       </c>
-      <c r="B69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>3157219</v>
-      </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="D70">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>35</v>
+      </c>
+      <c r="F70">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>310</v>
+      </c>
+      <c r="H70" t="s">
+        <v>311</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>2936644</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="D71">
+        <v>65</v>
+      </c>
+      <c r="E71">
+        <v>65</v>
+      </c>
+      <c r="F71">
+        <v>65</v>
+      </c>
+      <c r="G71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H71" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>3204298</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="D72">
+        <v>60</v>
+      </c>
+      <c r="E72">
+        <v>60</v>
+      </c>
+      <c r="F72">
+        <v>60</v>
+      </c>
+      <c r="G72" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" t="s">
+        <v>179</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>2939911</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="D73">
+        <v>49.73</v>
+      </c>
+      <c r="E73">
+        <v>49.73</v>
+      </c>
+      <c r="F73">
+        <v>49.73</v>
+      </c>
+      <c r="G73" t="s">
+        <v>320</v>
+      </c>
+      <c r="H73" t="s">
+        <v>321</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>3154229</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="D74">
+        <v>75</v>
+      </c>
+      <c r="E74">
+        <v>78</v>
+      </c>
+      <c r="F74">
+        <v>76.5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>193</v>
+      </c>
+      <c r="H74" t="s">
+        <v>194</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>3489611</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+      <c r="F75">
+        <v>74</v>
+      </c>
+      <c r="G75" t="s">
+        <v>327</v>
+      </c>
+      <c r="H75" t="s">
+        <v>328</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>3412453</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>331</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
+        <v>332</v>
+      </c>
+      <c r="H76" t="s">
+        <v>333</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>3552663</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>336</v>
+      </c>
+      <c r="D77">
+        <v>70</v>
+      </c>
+      <c r="E77">
+        <v>70</v>
+      </c>
+      <c r="F77">
+        <v>70</v>
+      </c>
+      <c r="G77" t="s">
+        <v>337</v>
+      </c>
+      <c r="H77" t="s">
+        <v>338</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>3390086</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>341</v>
+      </c>
+      <c r="D78">
+        <v>71</v>
+      </c>
+      <c r="E78">
+        <v>71</v>
+      </c>
+      <c r="F78">
+        <v>71</v>
+      </c>
+      <c r="G78" t="s">
+        <v>342</v>
+      </c>
+      <c r="H78" t="s">
+        <v>343</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
+        <v>3308837</v>
+      </c>
+      <c r="B79" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79">
+        <v>70</v>
+      </c>
+      <c r="E79">
+        <v>75</v>
+      </c>
+      <c r="F79">
+        <v>72.5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>347</v>
+      </c>
+      <c r="H79" t="s">
+        <v>348</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
         <v>3321347</v>
       </c>
-      <c r="B79" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" t="s">
-        <v>215</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>3308837</v>
-      </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>346</v>
+      </c>
+      <c r="D80">
+        <v>63.4</v>
+      </c>
+      <c r="E80">
+        <v>70</v>
+      </c>
+      <c r="F80">
+        <v>66.7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>351</v>
+      </c>
+      <c r="H80" t="s">
+        <v>352</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>3062911</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>346</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>355</v>
+      </c>
+      <c r="H81" t="s">
+        <v>356</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>2625619</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>358</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>346</v>
+      </c>
+      <c r="D82">
+        <v>72</v>
+      </c>
+      <c r="E82">
+        <v>72</v>
+      </c>
+      <c r="F82">
+        <v>72</v>
+      </c>
+      <c r="G82" t="s">
+        <v>359</v>
+      </c>
+      <c r="H82" t="s">
+        <v>360</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>3527379</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>362</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>346</v>
+      </c>
+      <c r="D83">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="E83">
+        <v>76.2</v>
+      </c>
+      <c r="F83">
+        <v>74.37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>363</v>
+      </c>
+      <c r="H83" t="s">
+        <v>364</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>3531117</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>366</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>367</v>
+      </c>
+      <c r="D84">
+        <v>55.41</v>
+      </c>
+      <c r="E84">
+        <v>59.94</v>
+      </c>
+      <c r="F84">
+        <v>57.675</v>
+      </c>
+      <c r="G84" t="s">
+        <v>368</v>
+      </c>
+      <c r="H84" t="s">
+        <v>369</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>2673527</v>
       </c>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>371</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="D85">
+        <v>82</v>
+      </c>
+      <c r="E85">
+        <v>82</v>
+      </c>
+      <c r="F85">
+        <v>82</v>
+      </c>
+      <c r="G85" t="s">
+        <v>327</v>
+      </c>
+      <c r="H85" t="s">
+        <v>373</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>3545191</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>375</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>376</v>
+      </c>
+      <c r="D86">
+        <v>60.23</v>
+      </c>
+      <c r="E86">
+        <v>64.83</v>
+      </c>
+      <c r="F86">
+        <v>62.53</v>
+      </c>
+      <c r="G86" t="s">
+        <v>377</v>
+      </c>
+      <c r="H86" t="s">
+        <v>378</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>3566250</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>380</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>381</v>
+      </c>
+      <c r="D87">
+        <v>106</v>
+      </c>
+      <c r="E87">
+        <v>106</v>
+      </c>
+      <c r="F87">
+        <v>106</v>
+      </c>
+      <c r="G87" t="s">
+        <v>382</v>
+      </c>
+      <c r="H87" t="s">
+        <v>383</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>3481345</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>386</v>
+      </c>
+      <c r="D88">
+        <v>37</v>
+      </c>
+      <c r="E88">
+        <v>41</v>
+      </c>
+      <c r="F88">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s">
+        <v>387</v>
+      </c>
+      <c r="H88" t="s">
+        <v>388</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>2902520</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>391</v>
+      </c>
+      <c r="D89">
+        <v>67</v>
+      </c>
+      <c r="E89">
+        <v>67</v>
+      </c>
+      <c r="F89">
+        <v>67</v>
+      </c>
+      <c r="G89" t="s">
+        <v>392</v>
+      </c>
+      <c r="H89" t="s">
+        <v>393</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>3381034</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="C90" t="s">
-        <v>244</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>396</v>
+      </c>
+      <c r="D90">
+        <v>49</v>
+      </c>
+      <c r="E90">
+        <v>49</v>
+      </c>
+      <c r="F90">
+        <v>49</v>
+      </c>
+      <c r="G90" t="s">
+        <v>397</v>
+      </c>
+      <c r="H90" t="s">
+        <v>388</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>3449256</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>399</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>400</v>
+      </c>
+      <c r="D91">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="E91">
+        <v>76</v>
+      </c>
+      <c r="F91">
+        <v>74.8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>401</v>
+      </c>
+      <c r="H91" t="s">
+        <v>402</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>3429580</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>404</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>405</v>
+      </c>
+      <c r="D92">
+        <v>70</v>
+      </c>
+      <c r="E92">
+        <v>70</v>
+      </c>
+      <c r="F92">
+        <v>70</v>
+      </c>
+      <c r="G92" t="s">
+        <v>406</v>
+      </c>
+      <c r="H92" t="s">
+        <v>407</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>3208064</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>409</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="D93">
+        <v>74</v>
+      </c>
+      <c r="E93">
+        <v>74</v>
+      </c>
+      <c r="F93">
+        <v>74</v>
+      </c>
+      <c r="G93" t="s">
+        <v>410</v>
+      </c>
+      <c r="H93" t="s">
+        <v>411</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>3210854</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="D94">
+        <v>77</v>
+      </c>
+      <c r="E94">
+        <v>77</v>
+      </c>
+      <c r="F94">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s">
+        <v>414</v>
+      </c>
+      <c r="H94" t="s">
+        <v>415</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>2928898</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="D95">
+        <v>62</v>
+      </c>
+      <c r="E95">
+        <v>62</v>
+      </c>
+      <c r="F95">
+        <v>62</v>
+      </c>
+      <c r="G95" t="s">
+        <v>418</v>
+      </c>
+      <c r="H95" t="s">
+        <v>419</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>2202544</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>422</v>
+      </c>
+      <c r="D96">
+        <v>75</v>
+      </c>
+      <c r="E96">
+        <v>75</v>
+      </c>
+      <c r="F96">
+        <v>75</v>
+      </c>
+      <c r="G96" t="s">
+        <v>423</v>
+      </c>
+      <c r="H96" t="s">
+        <v>424</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>3549314</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>426</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>427</v>
+      </c>
+      <c r="D97">
+        <v>73</v>
+      </c>
+      <c r="E97">
+        <v>73</v>
+      </c>
+      <c r="F97">
+        <v>73</v>
+      </c>
+      <c r="G97" t="s">
+        <v>428</v>
+      </c>
+      <c r="H97" t="s">
+        <v>429</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>2979547</v>
       </c>
       <c r="B98" t="s">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="C98" t="s">
-        <v>265</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>432</v>
+      </c>
+      <c r="D98">
+        <v>85</v>
+      </c>
+      <c r="E98">
+        <v>85</v>
+      </c>
+      <c r="F98">
+        <v>85</v>
+      </c>
+      <c r="G98" t="s">
+        <v>433</v>
+      </c>
+      <c r="H98" t="s">
+        <v>434</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>3199317</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>436</v>
       </c>
       <c r="C99" t="s">
-        <v>265</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>432</v>
+      </c>
+      <c r="D99">
+        <v>85</v>
+      </c>
+      <c r="E99">
+        <v>85</v>
+      </c>
+      <c r="F99">
+        <v>85</v>
+      </c>
+      <c r="G99" t="s">
+        <v>437</v>
+      </c>
+      <c r="H99" t="s">
+        <v>438</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
+        <v>3288000</v>
+      </c>
+      <c r="B100" t="s">
+        <v>440</v>
+      </c>
+      <c r="C100" t="s">
+        <v>432</v>
+      </c>
+      <c r="D100">
+        <v>61</v>
+      </c>
+      <c r="E100">
+        <v>70</v>
+      </c>
+      <c r="F100">
+        <v>65.5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>441</v>
+      </c>
+      <c r="H100" t="s">
+        <v>388</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
         <v>3292335</v>
       </c>
-      <c r="B100" t="s">
-        <v>269</v>
-      </c>
-      <c r="C100" t="s">
-        <v>265</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>3288000</v>
-      </c>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>443</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>432</v>
+      </c>
+      <c r="D101">
+        <v>80</v>
+      </c>
+      <c r="E101">
+        <v>80</v>
+      </c>
+      <c r="F101">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s">
+        <v>437</v>
+      </c>
+      <c r="H101" t="s">
+        <v>438</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>2870231</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="C102" t="s">
-        <v>274</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>446</v>
+      </c>
+      <c r="D102">
+        <v>82</v>
+      </c>
+      <c r="E102">
+        <v>82</v>
+      </c>
+      <c r="F102">
+        <v>82</v>
+      </c>
+      <c r="G102" t="s">
+        <v>447</v>
+      </c>
+      <c r="H102" t="s">
+        <v>448</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>3583174</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>450</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>451</v>
+      </c>
+      <c r="D103">
+        <v>75</v>
+      </c>
+      <c r="E103">
+        <v>75</v>
+      </c>
+      <c r="F103">
+        <v>75</v>
+      </c>
+      <c r="G103" t="s">
+        <v>452</v>
+      </c>
+      <c r="H103" t="s">
+        <v>453</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>3412948</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>455</v>
       </c>
       <c r="C104" t="s">
-        <v>280</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>456</v>
+      </c>
+      <c r="D104">
+        <v>70.16</v>
+      </c>
+      <c r="E104">
+        <v>73.88</v>
+      </c>
+      <c r="F104">
+        <v>72.02</v>
+      </c>
+      <c r="G104" t="s">
+        <v>457</v>
+      </c>
+      <c r="H104" t="s">
+        <v>458</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>3397480</v>
       </c>
       <c r="B105" t="s">
-        <v>282</v>
+        <v>460</v>
       </c>
       <c r="C105" t="s">
-        <v>283</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>461</v>
+      </c>
+      <c r="D105">
+        <v>80</v>
+      </c>
+      <c r="E105">
+        <v>80</v>
+      </c>
+      <c r="F105">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s">
+        <v>462</v>
+      </c>
+      <c r="H105" t="s">
+        <v>338</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>3537233</v>
       </c>
       <c r="B106" t="s">
-        <v>285</v>
+        <v>464</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>465</v>
+      </c>
+      <c r="D106">
+        <v>87</v>
+      </c>
+      <c r="E106">
+        <v>87</v>
+      </c>
+      <c r="F106">
+        <v>87</v>
+      </c>
+      <c r="G106" t="s">
+        <v>337</v>
+      </c>
+      <c r="H106" t="s">
+        <v>338</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>3256750</v>
       </c>
       <c r="B107" t="s">
-        <v>288</v>
+        <v>467</v>
       </c>
       <c r="C107" t="s">
-        <v>289</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>468</v>
+      </c>
+      <c r="D107">
+        <v>71.8</v>
+      </c>
+      <c r="E107">
+        <v>71.8</v>
+      </c>
+      <c r="F107">
+        <v>71.8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>469</v>
+      </c>
+      <c r="H107" t="s">
+        <v>470</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>2712554</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
+        <v>472</v>
       </c>
       <c r="C108" t="s">
-        <v>292</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>473</v>
+      </c>
+      <c r="D108">
+        <v>71</v>
+      </c>
+      <c r="E108">
+        <v>71</v>
+      </c>
+      <c r="F108">
+        <v>71</v>
+      </c>
+      <c r="G108" t="s">
+        <v>474</v>
+      </c>
+      <c r="H108" t="s">
+        <v>150</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
+        <v>3110788</v>
+      </c>
+      <c r="B109" t="s">
+        <v>476</v>
+      </c>
+      <c r="C109" t="s">
+        <v>477</v>
+      </c>
+      <c r="D109">
+        <v>85</v>
+      </c>
+      <c r="E109">
+        <v>85</v>
+      </c>
+      <c r="F109">
+        <v>85</v>
+      </c>
+      <c r="G109" t="s">
+        <v>478</v>
+      </c>
+      <c r="H109" t="s">
+        <v>479</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
         <v>2520908</v>
       </c>
-      <c r="B109" t="s">
-        <v>294</v>
-      </c>
-      <c r="C109" t="s">
-        <v>295</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>3110788</v>
-      </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>481</v>
       </c>
       <c r="C110" t="s">
-        <v>295</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>477</v>
+      </c>
+      <c r="D110">
+        <v>67.48</v>
+      </c>
+      <c r="E110">
+        <v>67.48</v>
+      </c>
+      <c r="F110">
+        <v>67.48</v>
+      </c>
+      <c r="G110" t="s">
+        <v>482</v>
+      </c>
+      <c r="H110" t="s">
+        <v>483</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>3287200</v>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>485</v>
       </c>
       <c r="C111" t="s">
-        <v>300</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>486</v>
+      </c>
+      <c r="D111">
+        <v>96</v>
+      </c>
+      <c r="E111">
+        <v>101</v>
+      </c>
+      <c r="F111">
+        <v>98.5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>487</v>
+      </c>
+      <c r="H111" t="s">
+        <v>488</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>3517552</v>
       </c>
       <c r="B112" t="s">
-        <v>302</v>
+        <v>490</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>486</v>
+      </c>
+      <c r="D112">
+        <v>98</v>
+      </c>
+      <c r="E112">
+        <v>98</v>
+      </c>
+      <c r="F112">
+        <v>98</v>
+      </c>
+      <c r="G112" t="s">
+        <v>491</v>
+      </c>
+      <c r="H112" t="s">
+        <v>492</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>3528409</v>
       </c>
       <c r="B113" t="s">
-        <v>304</v>
+        <v>494</v>
       </c>
       <c r="C113" t="s">
-        <v>305</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>495</v>
+      </c>
+      <c r="D113">
+        <v>70</v>
+      </c>
+      <c r="E113">
+        <v>80</v>
+      </c>
+      <c r="F113">
+        <v>75</v>
+      </c>
+      <c r="G113" t="s">
+        <v>144</v>
+      </c>
+      <c r="H113" t="s">
+        <v>145</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>3200166</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>497</v>
       </c>
       <c r="C114" t="s">
-        <v>305</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>495</v>
+      </c>
+      <c r="D114">
+        <v>85</v>
+      </c>
+      <c r="E114">
+        <v>85</v>
+      </c>
+      <c r="F114">
+        <v>85</v>
+      </c>
+      <c r="G114" t="s">
+        <v>498</v>
+      </c>
+      <c r="H114" t="s">
+        <v>499</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>3422073</v>
       </c>
       <c r="B115" t="s">
-        <v>309</v>
+        <v>501</v>
       </c>
       <c r="C115" t="s">
-        <v>310</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>502</v>
+      </c>
+      <c r="D115">
+        <v>81.38</v>
+      </c>
+      <c r="E115">
+        <v>85.83</v>
+      </c>
+      <c r="F115">
+        <v>83.60499999999999</v>
+      </c>
+      <c r="G115" t="s">
+        <v>503</v>
+      </c>
+      <c r="H115" t="s">
+        <v>504</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>3109467</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>506</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>200</v>
+      </c>
+      <c r="F116">
+        <v>150</v>
+      </c>
+      <c r="G116" t="s">
+        <v>508</v>
+      </c>
+      <c r="H116" t="s">
+        <v>509</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>3168252</v>
       </c>
       <c r="B117" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="C117" t="s">
-        <v>316</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>512</v>
+      </c>
+      <c r="D117">
+        <v>78</v>
+      </c>
+      <c r="E117">
+        <v>96</v>
+      </c>
+      <c r="F117">
+        <v>87</v>
+      </c>
+      <c r="G117" t="s">
+        <v>513</v>
+      </c>
+      <c r="H117" t="s">
+        <v>514</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>3481219</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>516</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>517</v>
+      </c>
+      <c r="D118">
+        <v>71</v>
+      </c>
+      <c r="E118">
+        <v>92</v>
+      </c>
+      <c r="F118">
+        <v>81.5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>518</v>
+      </c>
+      <c r="H118" t="s">
+        <v>519</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>3212197</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>521</v>
       </c>
       <c r="C119" t="s">
-        <v>322</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>522</v>
+      </c>
+      <c r="D119">
+        <v>80</v>
+      </c>
+      <c r="E119">
+        <v>80</v>
+      </c>
+      <c r="F119">
+        <v>80</v>
+      </c>
+      <c r="G119" t="s">
+        <v>523</v>
+      </c>
+      <c r="H119" t="s">
+        <v>524</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>3270386</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>526</v>
       </c>
       <c r="C120" t="s">
-        <v>322</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>522</v>
+      </c>
+      <c r="D120">
+        <v>110</v>
+      </c>
+      <c r="E120">
+        <v>126</v>
+      </c>
+      <c r="F120">
+        <v>118</v>
+      </c>
+      <c r="G120" t="s">
+        <v>527</v>
+      </c>
+      <c r="H120" t="s">
+        <v>528</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>3575390</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>530</v>
       </c>
       <c r="C121" t="s">
-        <v>327</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>531</v>
+      </c>
+      <c r="D121">
+        <v>88</v>
+      </c>
+      <c r="E121">
+        <v>96</v>
+      </c>
+      <c r="F121">
+        <v>92</v>
+      </c>
+      <c r="G121" t="s">
+        <v>532</v>
+      </c>
+      <c r="H121" t="s">
+        <v>533</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>3198825</v>
       </c>
       <c r="B122" t="s">
-        <v>329</v>
+        <v>535</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122">
+        <v>100</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="G122" t="s">
+        <v>536</v>
+      </c>
+      <c r="H122" t="s">
+        <v>537</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>3288839</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>539</v>
       </c>
       <c r="C123" t="s">
-        <v>332</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>540</v>
+      </c>
+      <c r="D123">
+        <v>73</v>
+      </c>
+      <c r="E123">
+        <v>77</v>
+      </c>
+      <c r="F123">
+        <v>75</v>
+      </c>
+      <c r="G123" t="s">
+        <v>541</v>
+      </c>
+      <c r="H123" t="s">
+        <v>542</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>3385352</v>
       </c>
       <c r="B124" t="s">
-        <v>334</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>335</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>545</v>
+      </c>
+      <c r="D124">
+        <v>85</v>
+      </c>
+      <c r="E124">
+        <v>95</v>
+      </c>
+      <c r="F124">
+        <v>90</v>
+      </c>
+      <c r="G124" t="s">
+        <v>546</v>
+      </c>
+      <c r="H124" t="s">
+        <v>547</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>3438290</v>
       </c>
       <c r="B125" t="s">
-        <v>337</v>
+        <v>549</v>
       </c>
       <c r="C125" t="s">
-        <v>338</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>550</v>
+      </c>
+      <c r="D125">
+        <v>79.04000000000001</v>
+      </c>
+      <c r="E125">
+        <v>86.04000000000001</v>
+      </c>
+      <c r="F125">
+        <v>82.54000000000001</v>
+      </c>
+      <c r="G125" t="s">
+        <v>551</v>
+      </c>
+      <c r="H125" t="s">
+        <v>552</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
-        <v>3319515</v>
+        <v>3365781</v>
       </c>
       <c r="B126" t="s">
-        <v>340</v>
+        <v>554</v>
       </c>
       <c r="C126" t="s">
-        <v>341</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>555</v>
+      </c>
+      <c r="D126">
+        <v>124</v>
+      </c>
+      <c r="E126">
+        <v>124</v>
+      </c>
+      <c r="F126">
+        <v>124</v>
+      </c>
+      <c r="G126" t="s">
+        <v>237</v>
+      </c>
+      <c r="H126" t="s">
+        <v>238</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
-        <v>3319515</v>
+        <v>3365781</v>
       </c>
       <c r="B127" t="s">
-        <v>340</v>
+        <v>554</v>
       </c>
       <c r="C127" t="s">
-        <v>341</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>555</v>
+      </c>
+      <c r="D127">
+        <v>124</v>
+      </c>
+      <c r="E127">
+        <v>124</v>
+      </c>
+      <c r="F127">
+        <v>124</v>
+      </c>
+      <c r="G127" t="s">
+        <v>237</v>
+      </c>
+      <c r="H127" t="s">
+        <v>238</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>3037483</v>
       </c>
       <c r="B128" t="s">
-        <v>343</v>
+        <v>557</v>
       </c>
       <c r="C128" t="s">
-        <v>341</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>555</v>
+      </c>
+      <c r="D128">
+        <v>113</v>
+      </c>
+      <c r="E128">
+        <v>124</v>
+      </c>
+      <c r="F128">
+        <v>118.5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>558</v>
+      </c>
+      <c r="H128" t="s">
+        <v>559</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>3103187</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>561</v>
       </c>
       <c r="C129" t="s">
-        <v>346</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>562</v>
+      </c>
+      <c r="D129">
+        <v>170</v>
+      </c>
+      <c r="E129">
+        <v>170</v>
+      </c>
+      <c r="F129">
+        <v>170</v>
+      </c>
+      <c r="G129" t="s">
+        <v>563</v>
+      </c>
+      <c r="H129" t="s">
+        <v>564</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
+        <v>3440258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>566</v>
+      </c>
+      <c r="C130" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130">
+        <v>94</v>
+      </c>
+      <c r="E130">
+        <v>102</v>
+      </c>
+      <c r="F130">
+        <v>98</v>
+      </c>
+      <c r="G130" t="s">
+        <v>567</v>
+      </c>
+      <c r="H130" t="s">
+        <v>568</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
         <v>3224239</v>
       </c>
-      <c r="B130" t="s">
-        <v>348</v>
-      </c>
-      <c r="C130" t="s">
-        <v>68</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131">
-        <v>3440258</v>
-      </c>
       <c r="B131" t="s">
-        <v>350</v>
+        <v>570</v>
       </c>
       <c r="C131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="D131">
+        <v>90</v>
+      </c>
+      <c r="E131">
+        <v>107</v>
+      </c>
+      <c r="F131">
+        <v>98.5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>571</v>
+      </c>
+      <c r="H131" t="s">
+        <v>572</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>3583865</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
       <c r="C132" t="s">
-        <v>68</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="D132">
+        <v>100</v>
+      </c>
+      <c r="E132">
+        <v>125</v>
+      </c>
+      <c r="F132">
+        <v>112.5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>482</v>
+      </c>
+      <c r="H132" t="s">
+        <v>483</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>3319383</v>
       </c>
       <c r="B133" t="s">
-        <v>354</v>
+        <v>576</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>577</v>
+      </c>
+      <c r="D133">
+        <v>90</v>
+      </c>
+      <c r="E133">
+        <v>104</v>
+      </c>
+      <c r="F133">
+        <v>97</v>
+      </c>
+      <c r="G133" t="s">
+        <v>578</v>
+      </c>
+      <c r="H133" t="s">
+        <v>579</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>3492149</v>
       </c>
       <c r="B134" t="s">
-        <v>357</v>
+        <v>581</v>
       </c>
       <c r="C134" t="s">
-        <v>358</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>582</v>
+      </c>
+      <c r="D134">
+        <v>170</v>
+      </c>
+      <c r="E134">
+        <v>170</v>
+      </c>
+      <c r="F134">
+        <v>170</v>
+      </c>
+      <c r="G134" t="s">
+        <v>563</v>
+      </c>
+      <c r="H134" t="s">
+        <v>564</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>3145940</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>584</v>
       </c>
       <c r="C135" t="s">
-        <v>361</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>585</v>
+      </c>
+      <c r="D135">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="E135">
+        <v>103.72</v>
+      </c>
+      <c r="F135">
+        <v>98.16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>382</v>
+      </c>
+      <c r="H135" t="s">
+        <v>383</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>2923527</v>
       </c>
       <c r="B136" t="s">
-        <v>363</v>
+        <v>587</v>
       </c>
       <c r="C136" t="s">
-        <v>364</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>588</v>
+      </c>
+      <c r="D136">
+        <v>98</v>
+      </c>
+      <c r="E136">
+        <v>120</v>
+      </c>
+      <c r="F136">
+        <v>109</v>
+      </c>
+      <c r="G136" t="s">
+        <v>589</v>
+      </c>
+      <c r="H136" t="s">
+        <v>448</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>3198635</v>
       </c>
       <c r="B137" t="s">
-        <v>366</v>
+        <v>591</v>
       </c>
       <c r="C137" t="s">
-        <v>367</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>592</v>
+      </c>
+      <c r="D137">
+        <v>110</v>
+      </c>
+      <c r="E137">
+        <v>110</v>
+      </c>
+      <c r="F137">
+        <v>110</v>
+      </c>
+      <c r="G137" t="s">
+        <v>593</v>
+      </c>
+      <c r="H137" t="s">
+        <v>594</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>3533446</v>
       </c>
       <c r="B138" t="s">
-        <v>369</v>
+        <v>596</v>
       </c>
       <c r="C138" t="s">
-        <v>367</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>592</v>
+      </c>
+      <c r="D138">
+        <v>155</v>
+      </c>
+      <c r="E138">
+        <v>155</v>
+      </c>
+      <c r="F138">
+        <v>155</v>
+      </c>
+      <c r="G138" t="s">
+        <v>597</v>
+      </c>
+      <c r="H138" t="s">
+        <v>598</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>3528514</v>
       </c>
       <c r="B139" t="s">
-        <v>371</v>
+        <v>600</v>
       </c>
       <c r="C139" t="s">
-        <v>372</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>601</v>
+      </c>
+      <c r="D139">
+        <v>142</v>
+      </c>
+      <c r="E139">
+        <v>162</v>
+      </c>
+      <c r="F139">
+        <v>152</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
+      <c r="H139" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>3220279</v>
       </c>
       <c r="B140" t="s">
-        <v>374</v>
+        <v>603</v>
       </c>
       <c r="C140" t="s">
-        <v>375</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>604</v>
+      </c>
+      <c r="D140">
+        <v>87</v>
+      </c>
+      <c r="E140">
+        <v>102</v>
+      </c>
+      <c r="F140">
+        <v>94.5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>605</v>
+      </c>
+      <c r="H140" t="s">
+        <v>388</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>3352790</v>
       </c>
       <c r="B141" t="s">
-        <v>377</v>
+        <v>607</v>
       </c>
       <c r="C141" t="s">
-        <v>378</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>608</v>
+      </c>
+      <c r="D141">
+        <v>92</v>
+      </c>
+      <c r="E141">
+        <v>105</v>
+      </c>
+      <c r="F141">
+        <v>98.5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>571</v>
+      </c>
+      <c r="H141" t="s">
+        <v>572</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>3287155</v>
       </c>
       <c r="B142" t="s">
-        <v>380</v>
+        <v>610</v>
       </c>
       <c r="C142" t="s">
-        <v>381</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>611</v>
+      </c>
+      <c r="D142">
+        <v>100</v>
+      </c>
+      <c r="E142">
+        <v>155</v>
+      </c>
+      <c r="F142">
+        <v>127.5</v>
+      </c>
+      <c r="G142" t="s">
+        <v>612</v>
+      </c>
+      <c r="H142" t="s">
+        <v>613</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>3549713</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="C143" t="s">
-        <v>381</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>611</v>
+      </c>
+      <c r="D143">
+        <v>80</v>
+      </c>
+      <c r="E143">
+        <v>90</v>
+      </c>
+      <c r="F143">
+        <v>85</v>
+      </c>
+      <c r="G143" t="s">
+        <v>615</v>
+      </c>
+      <c r="H143" t="s">
+        <v>616</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>3525383</v>
       </c>
       <c r="B144" t="s">
-        <v>384</v>
+        <v>618</v>
       </c>
       <c r="C144" t="s">
-        <v>385</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>619</v>
+      </c>
+      <c r="D144">
+        <v>120</v>
+      </c>
+      <c r="E144">
+        <v>120</v>
+      </c>
+      <c r="F144">
+        <v>120</v>
+      </c>
+      <c r="G144" t="s">
+        <v>620</v>
+      </c>
+      <c r="H144" t="s">
+        <v>621</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>3287194</v>
       </c>
       <c r="B145" t="s">
-        <v>387</v>
+        <v>623</v>
       </c>
       <c r="C145" t="s">
-        <v>385</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>619</v>
+      </c>
+      <c r="D145">
+        <v>101</v>
+      </c>
+      <c r="E145">
+        <v>120</v>
+      </c>
+      <c r="F145">
+        <v>110.5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>624</v>
+      </c>
+      <c r="H145" t="s">
+        <v>625</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>2161795</v>
       </c>
       <c r="B146" t="s">
-        <v>389</v>
+        <v>627</v>
       </c>
       <c r="C146" t="s">
-        <v>385</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>619</v>
+      </c>
+      <c r="D146">
+        <v>100.28</v>
+      </c>
+      <c r="E146">
+        <v>110.8</v>
+      </c>
+      <c r="F146">
+        <v>105.54</v>
+      </c>
+      <c r="G146" t="s">
+        <v>392</v>
+      </c>
+      <c r="H146" t="s">
+        <v>628</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>3257631</v>
       </c>
       <c r="B147" t="s">
-        <v>391</v>
+        <v>630</v>
       </c>
       <c r="C147" t="s">
-        <v>392</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>631</v>
+      </c>
+      <c r="D147">
+        <v>110</v>
+      </c>
+      <c r="E147">
+        <v>110</v>
+      </c>
+      <c r="F147">
+        <v>110</v>
+      </c>
+      <c r="G147" t="s">
+        <v>567</v>
+      </c>
+      <c r="H147" t="s">
+        <v>568</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>3514013</v>
       </c>
       <c r="B148" t="s">
-        <v>394</v>
+        <v>633</v>
       </c>
       <c r="C148" t="s">
-        <v>395</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>634</v>
+      </c>
+      <c r="D148">
+        <v>106</v>
+      </c>
+      <c r="E148">
+        <v>123</v>
+      </c>
+      <c r="F148">
+        <v>114.5</v>
+      </c>
+      <c r="G148" t="s">
+        <v>635</v>
+      </c>
+      <c r="H148" t="s">
+        <v>636</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>2932849</v>
       </c>
       <c r="B149" t="s">
-        <v>397</v>
+        <v>638</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>639</v>
+      </c>
+      <c r="D149">
+        <v>140</v>
+      </c>
+      <c r="E149">
+        <v>140</v>
+      </c>
+      <c r="F149">
+        <v>140</v>
+      </c>
+      <c r="G149" t="s">
+        <v>640</v>
+      </c>
+      <c r="H149" t="s">
+        <v>641</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>3466064</v>
       </c>
       <c r="B150" t="s">
-        <v>400</v>
+        <v>643</v>
       </c>
       <c r="C150" t="s">
-        <v>401</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>644</v>
+      </c>
+      <c r="D150">
+        <v>138</v>
+      </c>
+      <c r="E150">
+        <v>138</v>
+      </c>
+      <c r="F150">
+        <v>138</v>
+      </c>
+      <c r="G150" t="s">
+        <v>645</v>
+      </c>
+      <c r="H150" t="s">
+        <v>646</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>3062977</v>
       </c>
       <c r="B151" t="s">
-        <v>403</v>
+        <v>648</v>
       </c>
       <c r="C151" t="s">
-        <v>404</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>649</v>
+      </c>
+      <c r="D151">
+        <v>100</v>
+      </c>
+      <c r="E151">
+        <v>100</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+      <c r="G151" t="s">
+        <v>513</v>
+      </c>
+      <c r="H151" t="s">
+        <v>514</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>3474616</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>651</v>
       </c>
       <c r="C152" t="s">
-        <v>407</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>652</v>
+      </c>
+      <c r="D152">
+        <v>129.25</v>
+      </c>
+      <c r="E152">
+        <v>134.25</v>
+      </c>
+      <c r="F152">
+        <v>131.75</v>
+      </c>
+      <c r="G152" t="s">
+        <v>653</v>
+      </c>
+      <c r="H152" t="s">
+        <v>654</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>3468902</v>
       </c>
       <c r="B153" t="s">
-        <v>409</v>
+        <v>656</v>
       </c>
       <c r="C153" t="s">
-        <v>410</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>657</v>
+      </c>
+      <c r="D153">
+        <v>128.39</v>
+      </c>
+      <c r="E153">
+        <v>142</v>
+      </c>
+      <c r="F153">
+        <v>135.195</v>
+      </c>
+      <c r="G153" t="s">
+        <v>658</v>
+      </c>
+      <c r="H153" t="s">
+        <v>659</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>3412742</v>
       </c>
       <c r="B154" t="s">
-        <v>412</v>
+        <v>661</v>
       </c>
       <c r="C154" t="s">
-        <v>413</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>662</v>
+      </c>
+      <c r="D154">
+        <v>128</v>
+      </c>
+      <c r="E154">
+        <v>165</v>
+      </c>
+      <c r="F154">
+        <v>146.5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>663</v>
+      </c>
+      <c r="H154" t="s">
+        <v>664</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>3474138</v>
       </c>
       <c r="B155" t="s">
-        <v>415</v>
+        <v>666</v>
       </c>
       <c r="C155" t="s">
-        <v>416</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>667</v>
+      </c>
+      <c r="D155">
+        <v>170</v>
+      </c>
+      <c r="E155">
+        <v>170</v>
+      </c>
+      <c r="F155">
+        <v>170</v>
+      </c>
+      <c r="G155" t="s">
+        <v>668</v>
+      </c>
+      <c r="H155" t="s">
+        <v>669</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>2622967</v>
       </c>
       <c r="B156" t="s">
-        <v>418</v>
+        <v>671</v>
       </c>
       <c r="C156" t="s">
-        <v>419</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>672</v>
+      </c>
+      <c r="D156">
+        <v>170</v>
+      </c>
+      <c r="E156">
+        <v>170</v>
+      </c>
+      <c r="F156">
+        <v>170</v>
+      </c>
+      <c r="G156" t="s">
+        <v>673</v>
+      </c>
+      <c r="H156" t="s">
+        <v>301</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>3481242</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
+        <v>675</v>
       </c>
       <c r="C157" t="s">
-        <v>422</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>676</v>
+      </c>
+      <c r="D157">
+        <v>140</v>
+      </c>
+      <c r="E157">
+        <v>160</v>
+      </c>
+      <c r="F157">
+        <v>150</v>
+      </c>
+      <c r="G157" t="s">
+        <v>677</v>
+      </c>
+      <c r="H157" t="s">
+        <v>678</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>2895163</v>
       </c>
       <c r="B158" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="C158" t="s">
-        <v>425</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>681</v>
+      </c>
+      <c r="D158">
+        <v>140</v>
+      </c>
+      <c r="E158">
+        <v>170</v>
+      </c>
+      <c r="F158">
+        <v>155</v>
+      </c>
+      <c r="G158" t="s">
+        <v>682</v>
+      </c>
+      <c r="H158" t="s">
+        <v>683</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>2999578</v>
       </c>
       <c r="B159" t="s">
-        <v>427</v>
+        <v>685</v>
       </c>
       <c r="C159" t="s">
-        <v>428</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>686</v>
+      </c>
+      <c r="D159">
+        <v>122</v>
+      </c>
+      <c r="E159">
+        <v>173</v>
+      </c>
+      <c r="F159">
+        <v>147.5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>687</v>
+      </c>
+      <c r="H159" t="s">
+        <v>688</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>3105214</v>
       </c>
       <c r="B160" t="s">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="C160" t="s">
-        <v>431</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>691</v>
+      </c>
+      <c r="D160">
+        <v>128</v>
+      </c>
+      <c r="E160">
+        <v>165</v>
+      </c>
+      <c r="F160">
+        <v>146.5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>663</v>
+      </c>
+      <c r="H160" t="s">
+        <v>664</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>3577634</v>
       </c>
       <c r="B161" t="s">
-        <v>433</v>
+        <v>693</v>
       </c>
       <c r="C161" t="s">
-        <v>434</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>694</v>
+      </c>
+      <c r="D161">
+        <v>76</v>
+      </c>
+      <c r="E161">
+        <v>152</v>
+      </c>
+      <c r="F161">
+        <v>114</v>
+      </c>
+      <c r="G161" t="s">
+        <v>695</v>
+      </c>
+      <c r="H161" t="s">
+        <v>696</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>2918026</v>
       </c>
       <c r="B162" t="s">
-        <v>436</v>
+        <v>698</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>699</v>
+      </c>
+      <c r="D162">
+        <v>150</v>
+      </c>
+      <c r="E162">
+        <v>188</v>
+      </c>
+      <c r="F162">
+        <v>169</v>
+      </c>
+      <c r="G162" t="s">
+        <v>144</v>
+      </c>
+      <c r="H162" t="s">
+        <v>145</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>2886513</v>
       </c>
       <c r="B163" t="s">
-        <v>439</v>
+        <v>701</v>
       </c>
       <c r="C163" t="s">
-        <v>440</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>702</v>
+      </c>
+      <c r="D163">
+        <v>175</v>
+      </c>
+      <c r="E163">
+        <v>175</v>
+      </c>
+      <c r="F163">
+        <v>175</v>
+      </c>
+      <c r="G163" t="s">
+        <v>703</v>
+      </c>
+      <c r="H163" t="s">
+        <v>704</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>2492492</v>
       </c>
       <c r="B164" t="s">
-        <v>442</v>
+        <v>706</v>
       </c>
       <c r="C164" t="s">
-        <v>440</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>702</v>
+      </c>
+      <c r="D164">
+        <v>139</v>
+      </c>
+      <c r="E164">
+        <v>180</v>
+      </c>
+      <c r="F164">
+        <v>159.5</v>
+      </c>
+      <c r="G164" t="s">
+        <v>551</v>
+      </c>
+      <c r="H164" t="s">
+        <v>707</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>2972635</v>
       </c>
       <c r="B165" t="s">
-        <v>444</v>
+        <v>709</v>
       </c>
       <c r="C165" t="s">
-        <v>445</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>710</v>
+      </c>
+      <c r="D165">
+        <v>114</v>
+      </c>
+      <c r="E165">
+        <v>150</v>
+      </c>
+      <c r="F165">
+        <v>132</v>
+      </c>
+      <c r="G165" t="s">
+        <v>711</v>
+      </c>
+      <c r="H165" t="s">
+        <v>712</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>2964517</v>
       </c>
       <c r="B166" t="s">
-        <v>391</v>
+        <v>630</v>
       </c>
       <c r="C166" t="s">
-        <v>447</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>714</v>
+      </c>
+      <c r="D166">
+        <v>180</v>
+      </c>
+      <c r="E166">
+        <v>180</v>
+      </c>
+      <c r="F166">
+        <v>180</v>
+      </c>
+      <c r="G166" t="s">
+        <v>567</v>
+      </c>
+      <c r="H166" t="s">
+        <v>568</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>3264022</v>
       </c>
       <c r="B167" t="s">
-        <v>391</v>
+        <v>630</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>714</v>
+      </c>
+      <c r="D167">
+        <v>180</v>
+      </c>
+      <c r="E167">
+        <v>180</v>
+      </c>
+      <c r="F167">
+        <v>180</v>
+      </c>
+      <c r="G167" t="s">
+        <v>567</v>
+      </c>
+      <c r="H167" t="s">
+        <v>568</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>3408759</v>
       </c>
       <c r="B168" t="s">
-        <v>450</v>
+        <v>717</v>
       </c>
       <c r="C168" t="s">
-        <v>451</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>718</v>
+      </c>
+      <c r="D168">
+        <v>140</v>
+      </c>
+      <c r="E168">
+        <v>175</v>
+      </c>
+      <c r="F168">
+        <v>157.5</v>
+      </c>
+      <c r="G168" t="s">
+        <v>719</v>
+      </c>
+      <c r="H168" t="s">
+        <v>720</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>3466141</v>
       </c>
       <c r="B169" t="s">
-        <v>453</v>
+        <v>722</v>
       </c>
       <c r="C169" t="s">
-        <v>454</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>723</v>
+      </c>
+      <c r="D169">
+        <v>180</v>
+      </c>
+      <c r="E169">
+        <v>180</v>
+      </c>
+      <c r="F169">
+        <v>180</v>
+      </c>
+      <c r="G169" t="s">
+        <v>724</v>
+      </c>
+      <c r="H169" t="s">
+        <v>725</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>3180993</v>
       </c>
       <c r="B170" t="s">
-        <v>456</v>
+        <v>727</v>
       </c>
       <c r="C170" t="s">
-        <v>457</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>728</v>
+      </c>
+      <c r="D170">
+        <v>190</v>
+      </c>
+      <c r="E170">
+        <v>325</v>
+      </c>
+      <c r="F170">
+        <v>257.5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>571</v>
+      </c>
+      <c r="H170" t="s">
+        <v>572</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>3544852</v>
       </c>
       <c r="B171" t="s">
-        <v>459</v>
+        <v>730</v>
       </c>
       <c r="C171" t="s">
-        <v>460</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>731</v>
+      </c>
+      <c r="D171">
+        <v>65</v>
+      </c>
+      <c r="E171">
+        <v>65</v>
+      </c>
+      <c r="F171">
+        <v>65</v>
+      </c>
+      <c r="G171" t="s">
+        <v>732</v>
+      </c>
+      <c r="H171" t="s">
+        <v>733</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>3574625</v>
       </c>
       <c r="B172" t="s">
-        <v>462</v>
+        <v>735</v>
       </c>
       <c r="C172" t="s">
-        <v>463</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>736</v>
+      </c>
+      <c r="D172">
+        <v>65</v>
+      </c>
+      <c r="E172">
+        <v>65</v>
+      </c>
+      <c r="F172">
+        <v>65</v>
+      </c>
+      <c r="G172" t="s">
+        <v>737</v>
+      </c>
+      <c r="H172" t="s">
+        <v>738</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>3413090</v>
       </c>
       <c r="B173" t="s">
-        <v>465</v>
+        <v>740</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>254</v>
+      </c>
+      <c r="D173">
+        <v>54</v>
+      </c>
+      <c r="E173">
+        <v>59</v>
+      </c>
+      <c r="F173">
+        <v>56.5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>741</v>
+      </c>
+      <c r="H173" t="s">
+        <v>742</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>3572725</v>
       </c>
       <c r="B174" t="s">
-        <v>467</v>
+        <v>744</v>
       </c>
       <c r="C174" t="s">
-        <v>468</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>745</v>
+      </c>
+      <c r="D174">
+        <v>90</v>
+      </c>
+      <c r="E174">
+        <v>90</v>
+      </c>
+      <c r="F174">
+        <v>90</v>
+      </c>
+      <c r="G174" t="s">
+        <v>746</v>
+      </c>
+      <c r="H174" t="s">
+        <v>747</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>3555472</v>
       </c>
       <c r="B175" t="s">
-        <v>470</v>
+        <v>749</v>
       </c>
       <c r="C175" t="s">
-        <v>471</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>750</v>
+      </c>
+      <c r="D175">
+        <v>82</v>
+      </c>
+      <c r="E175">
+        <v>82</v>
+      </c>
+      <c r="F175">
+        <v>82</v>
+      </c>
+      <c r="G175" t="s">
+        <v>751</v>
+      </c>
+      <c r="H175" t="s">
+        <v>752</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>3584934</v>
       </c>
       <c r="B176" t="s">
-        <v>473</v>
+        <v>754</v>
       </c>
       <c r="C176" t="s">
-        <v>474</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>755</v>
+      </c>
+      <c r="D176">
+        <v>91</v>
+      </c>
+      <c r="E176">
+        <v>91</v>
+      </c>
+      <c r="F176">
+        <v>91</v>
+      </c>
+      <c r="G176" t="s">
+        <v>756</v>
+      </c>
+      <c r="H176" t="s">
+        <v>757</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>3556235</v>
       </c>
       <c r="B177" t="s">
-        <v>476</v>
+        <v>759</v>
       </c>
       <c r="C177" t="s">
-        <v>477</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>760</v>
+      </c>
+      <c r="D177">
+        <v>74</v>
+      </c>
+      <c r="E177">
+        <v>74</v>
+      </c>
+      <c r="F177">
+        <v>74</v>
+      </c>
+      <c r="G177" t="s">
+        <v>761</v>
+      </c>
+      <c r="H177" t="s">
+        <v>762</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>3580883</v>
       </c>
       <c r="B178" t="s">
-        <v>479</v>
+        <v>764</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="D178">
+        <v>97</v>
+      </c>
+      <c r="E178">
+        <v>100</v>
+      </c>
+      <c r="F178">
+        <v>98.5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>274</v>
+      </c>
+      <c r="H178" t="s">
+        <v>765</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>3202457</v>
       </c>
       <c r="B179" t="s">
-        <v>481</v>
+        <v>767</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="D179">
+        <v>64</v>
+      </c>
+      <c r="E179">
+        <v>64</v>
+      </c>
+      <c r="F179">
+        <v>64</v>
+      </c>
+      <c r="G179" t="s">
+        <v>567</v>
+      </c>
+      <c r="H179" t="s">
+        <v>568</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>3576567</v>
       </c>
       <c r="B180" t="s">
-        <v>483</v>
+        <v>769</v>
       </c>
       <c r="C180" t="s">
-        <v>484</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>770</v>
+      </c>
+      <c r="D180">
+        <v>95</v>
+      </c>
+      <c r="E180">
+        <v>100</v>
+      </c>
+      <c r="F180">
+        <v>97.5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>771</v>
+      </c>
+      <c r="H180" t="s">
+        <v>772</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>3567560</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>467</v>
       </c>
       <c r="C181" t="s">
-        <v>486</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>774</v>
+      </c>
+      <c r="D181">
+        <v>90</v>
+      </c>
+      <c r="E181">
+        <v>90</v>
+      </c>
+      <c r="F181">
+        <v>90</v>
+      </c>
+      <c r="G181" t="s">
+        <v>775</v>
+      </c>
+      <c r="H181" t="s">
+        <v>776</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>3535950</v>
       </c>
       <c r="B182" t="s">
-        <v>488</v>
+        <v>778</v>
       </c>
       <c r="C182" t="s">
-        <v>332</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>540</v>
+      </c>
+      <c r="D182">
+        <v>82</v>
+      </c>
+      <c r="E182">
+        <v>93</v>
+      </c>
+      <c r="F182">
+        <v>87.5</v>
+      </c>
+      <c r="G182" t="s">
+        <v>532</v>
+      </c>
+      <c r="H182" t="s">
+        <v>533</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>3548266</v>
       </c>
       <c r="B183" t="s">
-        <v>490</v>
+        <v>780</v>
       </c>
       <c r="C183" t="s">
-        <v>381</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>611</v>
+      </c>
+      <c r="D183">
+        <v>120</v>
+      </c>
+      <c r="E183">
+        <v>120</v>
+      </c>
+      <c r="F183">
+        <v>120</v>
+      </c>
+      <c r="G183" t="s">
+        <v>781</v>
+      </c>
+      <c r="H183" t="s">
+        <v>782</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>3565401</v>
       </c>
       <c r="B184" t="s">
-        <v>492</v>
+        <v>784</v>
       </c>
       <c r="C184" t="s">
-        <v>247</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>400</v>
+      </c>
+      <c r="D184">
+        <v>75</v>
+      </c>
+      <c r="E184">
+        <v>75</v>
+      </c>
+      <c r="F184">
+        <v>75</v>
+      </c>
+      <c r="G184" t="s">
+        <v>785</v>
+      </c>
+      <c r="H184" t="s">
+        <v>786</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>3534576</v>
       </c>
       <c r="B185" t="s">
-        <v>494</v>
+        <v>788</v>
       </c>
       <c r="C185" t="s">
-        <v>495</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>496</v>
+        <v>789</v>
+      </c>
+      <c r="D185">
+        <v>90</v>
+      </c>
+      <c r="E185">
+        <v>90</v>
+      </c>
+      <c r="F185">
+        <v>90</v>
+      </c>
+      <c r="G185" t="s">
+        <v>790</v>
+      </c>
+      <c r="H185" t="s">
+        <v>791</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
-    <hyperlink ref="D113" r:id="rId112"/>
-    <hyperlink ref="D114" r:id="rId113"/>
-    <hyperlink ref="D115" r:id="rId114"/>
-    <hyperlink ref="D116" r:id="rId115"/>
-    <hyperlink ref="D117" r:id="rId116"/>
-    <hyperlink ref="D118" r:id="rId117"/>
-    <hyperlink ref="D119" r:id="rId118"/>
-    <hyperlink ref="D120" r:id="rId119"/>
-    <hyperlink ref="D121" r:id="rId120"/>
-    <hyperlink ref="D122" r:id="rId121"/>
-    <hyperlink ref="D123" r:id="rId122"/>
-    <hyperlink ref="D124" r:id="rId123"/>
-    <hyperlink ref="D125" r:id="rId124"/>
-    <hyperlink ref="D126" r:id="rId125"/>
-    <hyperlink ref="D127" r:id="rId126"/>
-    <hyperlink ref="D128" r:id="rId127"/>
-    <hyperlink ref="D129" r:id="rId128"/>
-    <hyperlink ref="D130" r:id="rId129"/>
-    <hyperlink ref="D131" r:id="rId130"/>
-    <hyperlink ref="D132" r:id="rId131"/>
-    <hyperlink ref="D133" r:id="rId132"/>
-    <hyperlink ref="D134" r:id="rId133"/>
-    <hyperlink ref="D135" r:id="rId134"/>
-    <hyperlink ref="D136" r:id="rId135"/>
-    <hyperlink ref="D137" r:id="rId136"/>
-    <hyperlink ref="D138" r:id="rId137"/>
-    <hyperlink ref="D139" r:id="rId138"/>
-    <hyperlink ref="D140" r:id="rId139"/>
-    <hyperlink ref="D141" r:id="rId140"/>
-    <hyperlink ref="D142" r:id="rId141"/>
-    <hyperlink ref="D143" r:id="rId142"/>
-    <hyperlink ref="D144" r:id="rId143"/>
-    <hyperlink ref="D145" r:id="rId144"/>
-    <hyperlink ref="D146" r:id="rId145"/>
-    <hyperlink ref="D147" r:id="rId146"/>
-    <hyperlink ref="D148" r:id="rId147"/>
-    <hyperlink ref="D149" r:id="rId148"/>
-    <hyperlink ref="D150" r:id="rId149"/>
-    <hyperlink ref="D151" r:id="rId150"/>
-    <hyperlink ref="D152" r:id="rId151"/>
-    <hyperlink ref="D153" r:id="rId152"/>
-    <hyperlink ref="D154" r:id="rId153"/>
-    <hyperlink ref="D155" r:id="rId154"/>
-    <hyperlink ref="D156" r:id="rId155"/>
-    <hyperlink ref="D157" r:id="rId156"/>
-    <hyperlink ref="D158" r:id="rId157"/>
-    <hyperlink ref="D159" r:id="rId158"/>
-    <hyperlink ref="D160" r:id="rId159"/>
-    <hyperlink ref="D161" r:id="rId160"/>
-    <hyperlink ref="D162" r:id="rId161"/>
-    <hyperlink ref="D163" r:id="rId162"/>
-    <hyperlink ref="D164" r:id="rId163"/>
-    <hyperlink ref="D165" r:id="rId164"/>
-    <hyperlink ref="D166" r:id="rId165"/>
-    <hyperlink ref="D167" r:id="rId166"/>
-    <hyperlink ref="D168" r:id="rId167"/>
-    <hyperlink ref="D169" r:id="rId168"/>
-    <hyperlink ref="D170" r:id="rId169"/>
-    <hyperlink ref="D171" r:id="rId170"/>
-    <hyperlink ref="D172" r:id="rId171"/>
-    <hyperlink ref="D173" r:id="rId172"/>
-    <hyperlink ref="D174" r:id="rId173"/>
-    <hyperlink ref="D175" r:id="rId174"/>
-    <hyperlink ref="D176" r:id="rId175"/>
-    <hyperlink ref="D177" r:id="rId176"/>
-    <hyperlink ref="D178" r:id="rId177"/>
-    <hyperlink ref="D179" r:id="rId178"/>
-    <hyperlink ref="D180" r:id="rId179"/>
-    <hyperlink ref="D181" r:id="rId180"/>
-    <hyperlink ref="D182" r:id="rId181"/>
-    <hyperlink ref="D183" r:id="rId182"/>
-    <hyperlink ref="D184" r:id="rId183"/>
-    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
+    <hyperlink ref="I55" r:id="rId54"/>
+    <hyperlink ref="I56" r:id="rId55"/>
+    <hyperlink ref="I57" r:id="rId56"/>
+    <hyperlink ref="I58" r:id="rId57"/>
+    <hyperlink ref="I59" r:id="rId58"/>
+    <hyperlink ref="I60" r:id="rId59"/>
+    <hyperlink ref="I61" r:id="rId60"/>
+    <hyperlink ref="I62" r:id="rId61"/>
+    <hyperlink ref="I63" r:id="rId62"/>
+    <hyperlink ref="I64" r:id="rId63"/>
+    <hyperlink ref="I65" r:id="rId64"/>
+    <hyperlink ref="I66" r:id="rId65"/>
+    <hyperlink ref="I67" r:id="rId66"/>
+    <hyperlink ref="I68" r:id="rId67"/>
+    <hyperlink ref="I69" r:id="rId68"/>
+    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I71" r:id="rId70"/>
+    <hyperlink ref="I72" r:id="rId71"/>
+    <hyperlink ref="I73" r:id="rId72"/>
+    <hyperlink ref="I74" r:id="rId73"/>
+    <hyperlink ref="I75" r:id="rId74"/>
+    <hyperlink ref="I76" r:id="rId75"/>
+    <hyperlink ref="I77" r:id="rId76"/>
+    <hyperlink ref="I78" r:id="rId77"/>
+    <hyperlink ref="I79" r:id="rId78"/>
+    <hyperlink ref="I80" r:id="rId79"/>
+    <hyperlink ref="I81" r:id="rId80"/>
+    <hyperlink ref="I82" r:id="rId81"/>
+    <hyperlink ref="I83" r:id="rId82"/>
+    <hyperlink ref="I84" r:id="rId83"/>
+    <hyperlink ref="I85" r:id="rId84"/>
+    <hyperlink ref="I86" r:id="rId85"/>
+    <hyperlink ref="I87" r:id="rId86"/>
+    <hyperlink ref="I88" r:id="rId87"/>
+    <hyperlink ref="I89" r:id="rId88"/>
+    <hyperlink ref="I90" r:id="rId89"/>
+    <hyperlink ref="I91" r:id="rId90"/>
+    <hyperlink ref="I92" r:id="rId91"/>
+    <hyperlink ref="I93" r:id="rId92"/>
+    <hyperlink ref="I94" r:id="rId93"/>
+    <hyperlink ref="I95" r:id="rId94"/>
+    <hyperlink ref="I96" r:id="rId95"/>
+    <hyperlink ref="I97" r:id="rId96"/>
+    <hyperlink ref="I98" r:id="rId97"/>
+    <hyperlink ref="I99" r:id="rId98"/>
+    <hyperlink ref="I100" r:id="rId99"/>
+    <hyperlink ref="I101" r:id="rId100"/>
+    <hyperlink ref="I102" r:id="rId101"/>
+    <hyperlink ref="I103" r:id="rId102"/>
+    <hyperlink ref="I104" r:id="rId103"/>
+    <hyperlink ref="I105" r:id="rId104"/>
+    <hyperlink ref="I106" r:id="rId105"/>
+    <hyperlink ref="I107" r:id="rId106"/>
+    <hyperlink ref="I108" r:id="rId107"/>
+    <hyperlink ref="I109" r:id="rId108"/>
+    <hyperlink ref="I110" r:id="rId109"/>
+    <hyperlink ref="I111" r:id="rId110"/>
+    <hyperlink ref="I112" r:id="rId111"/>
+    <hyperlink ref="I113" r:id="rId112"/>
+    <hyperlink ref="I114" r:id="rId113"/>
+    <hyperlink ref="I115" r:id="rId114"/>
+    <hyperlink ref="I116" r:id="rId115"/>
+    <hyperlink ref="I117" r:id="rId116"/>
+    <hyperlink ref="I118" r:id="rId117"/>
+    <hyperlink ref="I119" r:id="rId118"/>
+    <hyperlink ref="I120" r:id="rId119"/>
+    <hyperlink ref="I121" r:id="rId120"/>
+    <hyperlink ref="I122" r:id="rId121"/>
+    <hyperlink ref="I123" r:id="rId122"/>
+    <hyperlink ref="I124" r:id="rId123"/>
+    <hyperlink ref="I125" r:id="rId124"/>
+    <hyperlink ref="I126" r:id="rId125"/>
+    <hyperlink ref="I127" r:id="rId126"/>
+    <hyperlink ref="I128" r:id="rId127"/>
+    <hyperlink ref="I129" r:id="rId128"/>
+    <hyperlink ref="I130" r:id="rId129"/>
+    <hyperlink ref="I131" r:id="rId130"/>
+    <hyperlink ref="I132" r:id="rId131"/>
+    <hyperlink ref="I133" r:id="rId132"/>
+    <hyperlink ref="I134" r:id="rId133"/>
+    <hyperlink ref="I135" r:id="rId134"/>
+    <hyperlink ref="I136" r:id="rId135"/>
+    <hyperlink ref="I137" r:id="rId136"/>
+    <hyperlink ref="I138" r:id="rId137"/>
+    <hyperlink ref="I139" r:id="rId138"/>
+    <hyperlink ref="I140" r:id="rId139"/>
+    <hyperlink ref="I141" r:id="rId140"/>
+    <hyperlink ref="I142" r:id="rId141"/>
+    <hyperlink ref="I143" r:id="rId142"/>
+    <hyperlink ref="I144" r:id="rId143"/>
+    <hyperlink ref="I145" r:id="rId144"/>
+    <hyperlink ref="I146" r:id="rId145"/>
+    <hyperlink ref="I147" r:id="rId146"/>
+    <hyperlink ref="I148" r:id="rId147"/>
+    <hyperlink ref="I149" r:id="rId148"/>
+    <hyperlink ref="I150" r:id="rId149"/>
+    <hyperlink ref="I151" r:id="rId150"/>
+    <hyperlink ref="I152" r:id="rId151"/>
+    <hyperlink ref="I153" r:id="rId152"/>
+    <hyperlink ref="I154" r:id="rId153"/>
+    <hyperlink ref="I155" r:id="rId154"/>
+    <hyperlink ref="I156" r:id="rId155"/>
+    <hyperlink ref="I157" r:id="rId156"/>
+    <hyperlink ref="I158" r:id="rId157"/>
+    <hyperlink ref="I159" r:id="rId158"/>
+    <hyperlink ref="I160" r:id="rId159"/>
+    <hyperlink ref="I161" r:id="rId160"/>
+    <hyperlink ref="I162" r:id="rId161"/>
+    <hyperlink ref="I163" r:id="rId162"/>
+    <hyperlink ref="I164" r:id="rId163"/>
+    <hyperlink ref="I165" r:id="rId164"/>
+    <hyperlink ref="I166" r:id="rId165"/>
+    <hyperlink ref="I167" r:id="rId166"/>
+    <hyperlink ref="I168" r:id="rId167"/>
+    <hyperlink ref="I169" r:id="rId168"/>
+    <hyperlink ref="I170" r:id="rId169"/>
+    <hyperlink ref="I171" r:id="rId170"/>
+    <hyperlink ref="I172" r:id="rId171"/>
+    <hyperlink ref="I173" r:id="rId172"/>
+    <hyperlink ref="I174" r:id="rId173"/>
+    <hyperlink ref="I175" r:id="rId174"/>
+    <hyperlink ref="I176" r:id="rId175"/>
+    <hyperlink ref="I177" r:id="rId176"/>
+    <hyperlink ref="I178" r:id="rId177"/>
+    <hyperlink ref="I179" r:id="rId178"/>
+    <hyperlink ref="I180" r:id="rId179"/>
+    <hyperlink ref="I181" r:id="rId180"/>
+    <hyperlink ref="I182" r:id="rId181"/>
+    <hyperlink ref="I183" r:id="rId182"/>
+    <hyperlink ref="I184" r:id="rId183"/>
+    <hyperlink ref="I185" r:id="rId184"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
